--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_076.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_076.xlsx
@@ -696,145 +696,145 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9.017668888547147</v>
+        <v>4.679510539260169</v>
       </c>
       <c r="E2" t="n">
-        <v>38.06849466366926</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.818296017655081</v>
       </c>
       <c r="G2" t="n">
-        <v>17.95702137130428</v>
+        <v>53.06421706733545</v>
       </c>
       <c r="H2" t="n">
-        <v>41.84352506385536</v>
+        <v>63.58905035496608</v>
       </c>
       <c r="I2" t="n">
-        <v>39.01592260485232</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>97.95079857864935</v>
+        <v>61.65828824877499</v>
       </c>
       <c r="K2" t="n">
-        <v>54.14863410789584</v>
+        <v>11.70616649009033</v>
       </c>
       <c r="L2" t="n">
-        <v>10.34086868565617</v>
+        <v>126.3733182381813</v>
       </c>
       <c r="M2" t="n">
-        <v>70.203824058423</v>
+        <v>85.00846779370752</v>
       </c>
       <c r="N2" t="n">
-        <v>103.6194905710214</v>
+        <v>94.33704894078191</v>
       </c>
       <c r="O2" t="n">
-        <v>22.9119051329288</v>
+        <v>53.99467883070112</v>
       </c>
       <c r="P2" t="n">
-        <v>170.0765355157866</v>
+        <v>59.32101807137714</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.33945264191626</v>
+        <v>131.5487062970116</v>
       </c>
       <c r="R2" t="n">
-        <v>158.6324824651095</v>
+        <v>40.43996851344276</v>
       </c>
       <c r="S2" t="n">
-        <v>74.48446320731898</v>
+        <v>94.15554093885947</v>
       </c>
       <c r="T2" t="n">
-        <v>84.87555519398124</v>
+        <v>253.2654395412806</v>
       </c>
       <c r="U2" t="n">
-        <v>41.89617505576687</v>
+        <v>74.68545757974809</v>
       </c>
       <c r="V2" t="n">
-        <v>35.60257586480398</v>
+        <v>21.51789876795047</v>
       </c>
       <c r="W2" t="n">
-        <v>62.77661766100242</v>
+        <v>40.73564561270761</v>
       </c>
       <c r="X2" t="n">
-        <v>53.26524047639165</v>
+        <v>57.49457914292856</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.2913141742191</v>
+        <v>87.81489704706186</v>
       </c>
       <c r="Z2" t="n">
-        <v>94.03323316529567</v>
+        <v>43.07730131144498</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.90599378647457</v>
+        <v>155.2491493612971</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.5457772949585</v>
+        <v>37.84629892304771</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.9231480690284</v>
+        <v>134.0995498404811</v>
       </c>
       <c r="AD2" t="n">
-        <v>29.59913025510459</v>
+        <v>98.72009258091774</v>
       </c>
       <c r="AE2" t="n">
-        <v>164.7817255484712</v>
+        <v>89.89470727150183</v>
       </c>
       <c r="AF2" t="n">
-        <v>160.9097672418709</v>
+        <v>64.61443800432622</v>
       </c>
       <c r="AG2" t="n">
-        <v>81.93881255258273</v>
+        <v>58.56661170450926</v>
       </c>
       <c r="AH2" t="n">
-        <v>71.77913588358069</v>
+        <v>98.5424577915104</v>
       </c>
       <c r="AI2" t="n">
-        <v>123.9681055997641</v>
+        <v>241.5625548455745</v>
       </c>
       <c r="AJ2" t="n">
-        <v>127.7976728532607</v>
+        <v>61.91002775050637</v>
       </c>
       <c r="AK2" t="n">
-        <v>49.24867217181254</v>
+        <v>26.81331991296282</v>
       </c>
       <c r="AL2" t="n">
-        <v>75.82869429891798</v>
+        <v>123.6347604446169</v>
       </c>
       <c r="AM2" t="n">
-        <v>27.1863145709571</v>
+        <v>15.63667425210473</v>
       </c>
       <c r="AN2" t="n">
-        <v>37.74076269225581</v>
+        <v>14.97600645543436</v>
       </c>
       <c r="AO2" t="n">
-        <v>20.05692388055702</v>
+        <v>12.80903820487396</v>
       </c>
       <c r="AP2" t="n">
-        <v>22.50033056946385</v>
+        <v>6.773207929485485</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28.63244910911988</v>
+        <v>32.5974531150265</v>
       </c>
       <c r="AR2" t="n">
-        <v>12.38234828812544</v>
+        <v>13.47471469908821</v>
       </c>
       <c r="AS2" t="n">
-        <v>31.42115127950304</v>
+        <v>32.29890365807644</v>
       </c>
       <c r="AT2" t="n">
-        <v>33.2953229314967</v>
+        <v>28.38967009225862</v>
       </c>
       <c r="AU2" t="n">
-        <v>15.14824587742093</v>
+        <v>39.1409761225236</v>
       </c>
       <c r="AV2" t="n">
-        <v>17.05064264431751</v>
+        <v>28.35717898967282</v>
       </c>
       <c r="AW2" t="n">
-        <v>25.72021865451357</v>
+        <v>39.31440210837051</v>
       </c>
       <c r="AX2" t="n">
-        <v>33.71783951950625</v>
+        <v>45.62025270719962</v>
       </c>
     </row>
     <row r="3">
@@ -848,145 +848,145 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.755415268962686</v>
       </c>
       <c r="E3" t="n">
-        <v>3.815938937364213</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.872330920157392</v>
+        <v>2.705690144680992</v>
       </c>
       <c r="G3" t="n">
-        <v>5.161467081110683</v>
+        <v>5.030940229564456</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3782725778767003</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.281353529443512</v>
+        <v>2.358838755120062</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05504421264632664</v>
+        <v>4.157181941080454</v>
       </c>
       <c r="K3" t="n">
-        <v>2.014442476317917</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.147070554193566</v>
+        <v>3.744817987835139</v>
       </c>
       <c r="M3" t="n">
-        <v>6.212038569172869</v>
+        <v>0.6462725411223004</v>
       </c>
       <c r="N3" t="n">
-        <v>2.729660811714112</v>
+        <v>3.874097218962621</v>
       </c>
       <c r="O3" t="n">
-        <v>2.583414193860496</v>
+        <v>2.300448362335312</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9100268522817594</v>
+        <v>4.608043110954561</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.489750617690303</v>
+        <v>6.069815934348331</v>
       </c>
       <c r="R3" t="n">
-        <v>1.961723524400166</v>
+        <v>3.502187112026363</v>
       </c>
       <c r="S3" t="n">
-        <v>4.108629206443063</v>
+        <v>3.120810886590951</v>
       </c>
       <c r="T3" t="n">
-        <v>6.165430366437215</v>
+        <v>1.831328990770464</v>
       </c>
       <c r="U3" t="n">
-        <v>11.46680958976673</v>
+        <v>4.05236910800741</v>
       </c>
       <c r="V3" t="n">
-        <v>2.580733042512086</v>
+        <v>4.915843715073886</v>
       </c>
       <c r="W3" t="n">
-        <v>8.16809536024739</v>
+        <v>3.592786260336538</v>
       </c>
       <c r="X3" t="n">
-        <v>7.166533607110281</v>
+        <v>4.889981869282044</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.504672004242601</v>
+        <v>1.408570428867657</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.552148940451272</v>
+        <v>10.75468327474254</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.549084712732798</v>
+        <v>5.069694202654139</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.622535023341003</v>
+        <v>2.150628051110442</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.641472343845578</v>
+        <v>4.841741435920384</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.333586393694218</v>
+        <v>9.852620706606711</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.888203866121838</v>
+        <v>10.51697973159182</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.4431092862253</v>
+        <v>1.941383686186944</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.9801200583809</v>
+        <v>1.833489670055152</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.447968325917866</v>
+        <v>4.893188274119969</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.822713419336591</v>
+        <v>5.585407492687999</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.957242791041664</v>
+        <v>0.4928000974505715</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.276053572163393</v>
+        <v>6.492438314488584</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.797915618331587</v>
+        <v>6.512064366989391</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.217765136531607</v>
+        <v>11.26294442074093</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.671955208279477</v>
+        <v>2.309958690063767</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.967320534475979</v>
+        <v>3.868334016632124</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.855500771007642</v>
+        <v>4.531366297458989</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6.181966500283181</v>
+        <v>2.567881632347459</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.801411255147491</v>
+        <v>0.7449398626274889</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.807904099213952</v>
+        <v>4.613073094839382</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.268830794756582</v>
+        <v>2.925077054137798</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.90672397767283</v>
+        <v>3.113228249895032</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.914870136410372</v>
+        <v>3.477950418915582</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.275968657448119</v>
+        <v>8.847404479413459</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.533961042002039</v>
+        <v>5.075359198697333</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7.429899655248644</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9.038833004973775</v>
+        <v>44.80184780982578</v>
       </c>
       <c r="E4" t="n">
-        <v>14.90039361932622</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>62.63055667147512</v>
       </c>
       <c r="G4" t="n">
-        <v>12.03682612356959</v>
+        <v>48.77949118587568</v>
       </c>
       <c r="H4" t="n">
-        <v>16.96348044869481</v>
+        <v>5.126581425084487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8945287292449962</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.27044903335829</v>
+        <v>56.91248370197309</v>
       </c>
       <c r="K4" t="n">
-        <v>52.55039271637652</v>
+        <v>31.15943972566098</v>
       </c>
       <c r="L4" t="n">
-        <v>88.56182915327821</v>
+        <v>11.76285429053777</v>
       </c>
       <c r="M4" t="n">
-        <v>107.1875549609315</v>
+        <v>35.19997335250784</v>
       </c>
       <c r="N4" t="n">
-        <v>280.5919803921381</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>32.10951219393257</v>
+        <v>52.06007954895009</v>
       </c>
       <c r="P4" t="n">
-        <v>126.4798368764899</v>
+        <v>85.88951340099285</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.14053950836313</v>
+        <v>70.72191313033427</v>
       </c>
       <c r="R4" t="n">
-        <v>19.19827527029682</v>
+        <v>76.4164854807338</v>
       </c>
       <c r="S4" t="n">
-        <v>51.99188209034019</v>
+        <v>29.87007587107931</v>
       </c>
       <c r="T4" t="n">
-        <v>14.47324676868926</v>
+        <v>72.76975512776885</v>
       </c>
       <c r="U4" t="n">
-        <v>104.0586543948358</v>
+        <v>47.83736211187698</v>
       </c>
       <c r="V4" t="n">
-        <v>69.26695394063812</v>
+        <v>78.1645204706745</v>
       </c>
       <c r="W4" t="n">
-        <v>71.83078730509978</v>
+        <v>153.7831884326452</v>
       </c>
       <c r="X4" t="n">
-        <v>61.60769313043438</v>
+        <v>100.9841434318665</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.2939935168679</v>
+        <v>66.524704634917</v>
       </c>
       <c r="Z4" t="n">
-        <v>58.93851989681426</v>
+        <v>35.75491389361046</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.29675447505729</v>
+        <v>67.78899686243741</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.4939843884803</v>
+        <v>22.66243168708457</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.47841743352096</v>
+        <v>38.94602963042473</v>
       </c>
       <c r="AD4" t="n">
-        <v>90.62143603561883</v>
+        <v>47.20701740707973</v>
       </c>
       <c r="AE4" t="n">
-        <v>115.5032732117289</v>
+        <v>45.05973884664103</v>
       </c>
       <c r="AF4" t="n">
-        <v>83.78156519473815</v>
+        <v>58.85113110739046</v>
       </c>
       <c r="AG4" t="n">
-        <v>109.6682205961152</v>
+        <v>45.70508659537357</v>
       </c>
       <c r="AH4" t="n">
-        <v>84.40167946903055</v>
+        <v>47.98702904677317</v>
       </c>
       <c r="AI4" t="n">
-        <v>55.59295512704669</v>
+        <v>66.9669362086661</v>
       </c>
       <c r="AJ4" t="n">
-        <v>31.47480123104091</v>
+        <v>49.7968389782239</v>
       </c>
       <c r="AK4" t="n">
-        <v>80.29396167110428</v>
+        <v>86.817993834625</v>
       </c>
       <c r="AL4" t="n">
-        <v>23.1610123873027</v>
+        <v>7.053698162334259</v>
       </c>
       <c r="AM4" t="n">
-        <v>40.21084815657153</v>
+        <v>6.195728648509181</v>
       </c>
       <c r="AN4" t="n">
-        <v>38.1708826886406</v>
+        <v>11.60154587721024</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.97596753169081</v>
+        <v>17.1876221141586</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.586778208512099</v>
+        <v>25.66776965444193</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27.10735909919014</v>
+        <v>13.6544865843928</v>
       </c>
       <c r="AR4" t="n">
-        <v>15.59061041920792</v>
+        <v>8.65524372903505</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.510027392443604</v>
+        <v>14.12231209986439</v>
       </c>
       <c r="AT4" t="n">
-        <v>16.49565238668267</v>
+        <v>31.52317713319477</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.447519203195231</v>
+        <v>4.421440654870002</v>
       </c>
       <c r="AV4" t="n">
-        <v>15.95347043693232</v>
+        <v>11.70727576033957</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.534981087159002</v>
+        <v>13.77266901733871</v>
       </c>
       <c r="AX4" t="n">
-        <v>18.42218734964581</v>
+        <v>18.46455764265642</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>19.5638591958302</v>
+        <v>19.98631892622451</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.22180234922594</v>
       </c>
       <c r="F5" t="n">
-        <v>28.01580735090681</v>
+        <v>46.31305847904411</v>
       </c>
       <c r="G5" t="n">
-        <v>10.43476912884893</v>
+        <v>6.776623767713662</v>
       </c>
       <c r="H5" t="n">
-        <v>4.688444987831389</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>20.75673938260448</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>365.3382954078642</v>
+        <v>40.74000040721469</v>
       </c>
       <c r="K5" t="n">
-        <v>182.7879651970918</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.966935531189295</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>77.16423326377083</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>46.54786343298359</v>
       </c>
       <c r="O5" t="n">
-        <v>24.75280585563652</v>
+        <v>29.59023826023361</v>
       </c>
       <c r="P5" t="n">
-        <v>34.84469633132385</v>
+        <v>35.49179107795937</v>
       </c>
       <c r="Q5" t="n">
-        <v>37.49249218018169</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.71050959222806</v>
+        <v>10.08277787637344</v>
       </c>
       <c r="S5" t="n">
-        <v>42.77390339665707</v>
+        <v>146.3657669716063</v>
       </c>
       <c r="T5" t="n">
-        <v>84.19073114427276</v>
+        <v>35.87696625083339</v>
       </c>
       <c r="U5" t="n">
-        <v>42.477815450142</v>
+        <v>13.93249422684548</v>
       </c>
       <c r="V5" t="n">
-        <v>36.04298630825913</v>
+        <v>65.17416393866982</v>
       </c>
       <c r="W5" t="n">
-        <v>117.5695211165441</v>
+        <v>60.92054166371639</v>
       </c>
       <c r="X5" t="n">
-        <v>52.6423364465076</v>
+        <v>56.84674295623422</v>
       </c>
       <c r="Y5" t="n">
-        <v>71.36071118045304</v>
+        <v>53.42117093001619</v>
       </c>
       <c r="Z5" t="n">
-        <v>52.86456371890682</v>
+        <v>60.01051290235183</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.5632981334278</v>
+        <v>8.249111145412613</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>31.79310484852626</v>
       </c>
       <c r="AC5" t="n">
-        <v>36.13982386603206</v>
+        <v>54.53041001490264</v>
       </c>
       <c r="AD5" t="n">
-        <v>46.25996333222306</v>
+        <v>29.04411311497606</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.38560656436929</v>
+        <v>37.59396619047629</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.94463505371096</v>
+        <v>72.19173940943908</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.99897031000197</v>
+        <v>51.04640844514526</v>
       </c>
       <c r="AH5" t="n">
-        <v>21.98894383252556</v>
+        <v>17.0035692563613</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>93.10550643943996</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>103.2025342689202</v>
       </c>
       <c r="AK5" t="n">
-        <v>28.07108384709924</v>
+        <v>28.28948537365742</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2840156984149536</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>20.46823088555462</v>
+        <v>18.1817998250721</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.55682965791613</v>
+        <v>30.99707752967659</v>
       </c>
       <c r="AO5" t="n">
-        <v>17.01593601217876</v>
+        <v>24.04283049774972</v>
       </c>
       <c r="AP5" t="n">
-        <v>37.16625334924345</v>
+        <v>37.66213741847773</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31.2004858692799</v>
+        <v>23.27539805757279</v>
       </c>
       <c r="AR5" t="n">
-        <v>22.15052185003442</v>
+        <v>38.64506754062788</v>
       </c>
       <c r="AS5" t="n">
-        <v>14.2869544849644</v>
+        <v>22.12012209232755</v>
       </c>
       <c r="AT5" t="n">
-        <v>38.62573230433487</v>
+        <v>20.55045470874291</v>
       </c>
       <c r="AU5" t="n">
-        <v>37.44449060126138</v>
+        <v>26.8072681302989</v>
       </c>
       <c r="AV5" t="n">
-        <v>19.20676137925413</v>
+        <v>12.00518602776277</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.359582239529042</v>
+        <v>41.15288410199371</v>
       </c>
       <c r="AX5" t="n">
-        <v>13.01720063239998</v>
+        <v>12.18681499502233</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.076436497591021</v>
+        <v>8.70249297504043</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.411748116443603</v>
+        <v>10.06214554545419</v>
       </c>
       <c r="F6" t="n">
-        <v>6.286857062282738</v>
+        <v>152.9935597243693</v>
       </c>
       <c r="G6" t="n">
-        <v>2.95164894632015</v>
+        <v>8.439101475189229</v>
       </c>
       <c r="H6" t="n">
-        <v>8.15503883413969</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.73538395176512</v>
+        <v>14.88472297638698</v>
       </c>
       <c r="J6" t="n">
-        <v>21.84632079135298</v>
+        <v>2.153192174912681</v>
       </c>
       <c r="K6" t="n">
-        <v>17.0607166628704</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>84.36092031080793</v>
+        <v>37.83598442787353</v>
       </c>
       <c r="M6" t="n">
-        <v>12.28802990309313</v>
+        <v>1.936938636563595</v>
       </c>
       <c r="N6" t="n">
-        <v>35.38484213261106</v>
+        <v>5.541226472922856</v>
       </c>
       <c r="O6" t="n">
-        <v>38.46939573794039</v>
+        <v>65.34335165233357</v>
       </c>
       <c r="P6" t="n">
-        <v>29.97210712144694</v>
+        <v>25.53097119937932</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.00322383983776</v>
+        <v>24.67748412886299</v>
       </c>
       <c r="R6" t="n">
-        <v>10.31944347609751</v>
+        <v>24.37795460673646</v>
       </c>
       <c r="S6" t="n">
-        <v>5.713018985139021</v>
+        <v>41.8182301277762</v>
       </c>
       <c r="T6" t="n">
-        <v>3.520063030397421</v>
+        <v>12.36970570541292</v>
       </c>
       <c r="U6" t="n">
-        <v>17.61419911382357</v>
+        <v>44.860332743958</v>
       </c>
       <c r="V6" t="n">
-        <v>26.08158203012088</v>
+        <v>41.75911841100746</v>
       </c>
       <c r="W6" t="n">
-        <v>14.10690305379724</v>
+        <v>11.15687159679156</v>
       </c>
       <c r="X6" t="n">
-        <v>15.03980792394692</v>
+        <v>146.8848807108908</v>
       </c>
       <c r="Y6" t="n">
-        <v>33.07201963177807</v>
+        <v>15.180443244558</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.59766693586791</v>
+        <v>36.58849091396338</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.82341012088088</v>
+        <v>23.85565811108766</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.366289619853113</v>
+        <v>10.1405919575797</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.74634312837794</v>
+        <v>24.62209343673559</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.20062867735966</v>
+        <v>8.612042411895358</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.2250376510815</v>
+        <v>10.81400394100985</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.71709579430075</v>
+        <v>15.17114040476788</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5829390643018</v>
+        <v>2.351444944027195</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.238267621818</v>
+        <v>16.25829798716013</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.762894827773323</v>
+        <v>9.124282465335911</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.991935957372121</v>
+        <v>15.00939159022142</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.6379807165298</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.604350709256866</v>
+        <v>7.338187592946247</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.516150391600751</v>
+        <v>1.198685693812526</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.2541423340043674</v>
+        <v>5.996792808158023</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.845368104709178</v>
+        <v>4.190327063149528</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.273454527492382</v>
+        <v>2.537738413042728</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7.444177682350151</v>
+        <v>2.379033050172425</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.217101431515236</v>
+        <v>2.905396481669155</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.106671475143711</v>
+        <v>3.555922161411138</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.07309003533515</v>
+        <v>3.25874659874354</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.578916243537305</v>
+        <v>2.695283570656994</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.452787111157663</v>
+        <v>2.689538445545412</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.45690481907502</v>
+        <v>4.224589903605837</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.286334112237947</v>
+        <v>7.498594927083301</v>
       </c>
     </row>
     <row r="7">
@@ -1456,145 +1456,145 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.576408054908521</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>119.3385969541276</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>55.21155683864618</v>
+        <v>18.13840986597121</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9215470641540229</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.01581572473988</v>
+        <v>24.14574649438566</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.85277571346975</v>
       </c>
       <c r="K7" t="n">
-        <v>22.20884961963603</v>
+        <v>20.08340166503073</v>
       </c>
       <c r="L7" t="n">
-        <v>50.41172571888804</v>
+        <v>22.49027952634087</v>
       </c>
       <c r="M7" t="n">
-        <v>61.15123365017119</v>
+        <v>30.13284981393331</v>
       </c>
       <c r="N7" t="n">
-        <v>122.313733349118</v>
+        <v>4.18517556669932</v>
       </c>
       <c r="O7" t="n">
-        <v>29.64858861700587</v>
+        <v>1.802226949110539</v>
       </c>
       <c r="P7" t="n">
-        <v>32.91138806626734</v>
+        <v>1.648285171541342</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.760815823510733</v>
+        <v>13.0206936835091</v>
       </c>
       <c r="R7" t="n">
-        <v>9.168184914073603</v>
+        <v>30.28637120583087</v>
       </c>
       <c r="S7" t="n">
-        <v>29.03092459498804</v>
+        <v>35.92893011113972</v>
       </c>
       <c r="T7" t="n">
-        <v>17.40811757822915</v>
+        <v>85.96464183652704</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>26.55718580546208</v>
       </c>
       <c r="V7" t="n">
-        <v>21.02161933001195</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>5.194082395928111</v>
+        <v>31.62940647689528</v>
       </c>
       <c r="X7" t="n">
-        <v>33.05553304044106</v>
+        <v>25.65019818289655</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.33841013352549</v>
+        <v>61.88521577981494</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.24279840359506</v>
+        <v>34.16543555240154</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.314863613034097</v>
+        <v>21.27984928078563</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.398516824314583</v>
+        <v>23.07618147181484</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.08391336444405</v>
+        <v>6.912206037040489</v>
       </c>
       <c r="AD7" t="n">
-        <v>49.74751034991791</v>
+        <v>35.6275015980809</v>
       </c>
       <c r="AE7" t="n">
-        <v>52.61479123274645</v>
+        <v>7.189309625196582</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.630752662171052</v>
+        <v>1.298094644832879</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.3044448023343</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.466844630002399</v>
+        <v>35.98473456882932</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.435934169961666</v>
+        <v>3.35490203154689</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.555624467739606</v>
+        <v>6.909098720625151</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.10241816782875</v>
+        <v>41.09377280235073</v>
       </c>
       <c r="AL7" t="n">
-        <v>11.50288718207126</v>
+        <v>11.21820486044788</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>18.29242649561003</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>11.3234223518684</v>
       </c>
       <c r="AO7" t="n">
-        <v>22.57907929584224</v>
+        <v>18.71214265503788</v>
       </c>
       <c r="AP7" t="n">
-        <v>8.533262937433282</v>
+        <v>12.1417861021286</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5.533083407407954</v>
+        <v>5.228615538077115</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.694881812144837</v>
+        <v>12.84089232209867</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.349592667711586</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.561647717716389</v>
+        <v>15.74939984161898</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.817469584297408</v>
+        <v>3.689818522262504</v>
       </c>
       <c r="AV7" t="n">
-        <v>26.64840086019226</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>2.462169986885418</v>
+        <v>10.11903352356215</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.716359967845929</v>
+        <v>6.811663772542179</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>31.12881837941594</v>
       </c>
       <c r="D8" t="n">
-        <v>27.95883679817517</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7.712538208004387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2666040793417217</v>
+        <v>18.84301914533444</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>18.46990180919005</v>
+        <v>29.91904848180037</v>
       </c>
       <c r="I8" t="n">
-        <v>13.79516151452484</v>
+        <v>20.05014473851094</v>
       </c>
       <c r="J8" t="n">
-        <v>129.0568837113408</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>154.3672655748242</v>
+        <v>31.74048605063367</v>
       </c>
       <c r="L8" t="n">
-        <v>193.231496596908</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>50.64346458747617</v>
+        <v>38.15209810926103</v>
       </c>
       <c r="N8" t="n">
-        <v>152.4566666824634</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>34.36558900699551</v>
+        <v>64.48670207245753</v>
       </c>
       <c r="P8" t="n">
-        <v>16.85040725220205</v>
+        <v>24.92720590596214</v>
       </c>
       <c r="Q8" t="n">
-        <v>45.0927447459041</v>
+        <v>56.88455393083861</v>
       </c>
       <c r="R8" t="n">
-        <v>73.90111065443554</v>
+        <v>98.49435294147104</v>
       </c>
       <c r="S8" t="n">
-        <v>28.78268345118239</v>
+        <v>78.66745414127638</v>
       </c>
       <c r="T8" t="n">
-        <v>30.1453500094452</v>
+        <v>52.41239383871269</v>
       </c>
       <c r="U8" t="n">
-        <v>75.49190983006659</v>
+        <v>87.75199514833655</v>
       </c>
       <c r="V8" t="n">
-        <v>41.34440261137735</v>
+        <v>22.3099332523525</v>
       </c>
       <c r="W8" t="n">
-        <v>107.4548516030318</v>
+        <v>28.92713960845216</v>
       </c>
       <c r="X8" t="n">
-        <v>68.3942791009848</v>
+        <v>67.70247833895601</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.30294041067493</v>
+        <v>32.03174815239701</v>
       </c>
       <c r="Z8" t="n">
-        <v>118.9886686138752</v>
+        <v>111.1150115568979</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.50596740730042</v>
+        <v>94.92235397953029</v>
       </c>
       <c r="AB8" t="n">
-        <v>71.18509650778536</v>
+        <v>46.23709139821975</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.82650780813802</v>
+        <v>45.94850777436758</v>
       </c>
       <c r="AD8" t="n">
-        <v>75.10042425046986</v>
+        <v>50.1410281309473</v>
       </c>
       <c r="AE8" t="n">
-        <v>86.95728124096273</v>
+        <v>23.27864054767128</v>
       </c>
       <c r="AF8" t="n">
-        <v>155.8281819666581</v>
+        <v>159.6852255580037</v>
       </c>
       <c r="AG8" t="n">
-        <v>168.2594293529577</v>
+        <v>123.2486984382143</v>
       </c>
       <c r="AH8" t="n">
-        <v>81.2123780245435</v>
+        <v>122.1792722603707</v>
       </c>
       <c r="AI8" t="n">
-        <v>86.7570540999878</v>
+        <v>89.76483110144237</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27.67124089553351</v>
+        <v>132.9610385422821</v>
       </c>
       <c r="AK8" t="n">
-        <v>21.2511468614503</v>
+        <v>109.6376546077118</v>
       </c>
       <c r="AL8" t="n">
-        <v>56.6284840075619</v>
+        <v>119.8150023499038</v>
       </c>
       <c r="AM8" t="n">
-        <v>26.22365022422688</v>
+        <v>25.02629244020333</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.67240154664879</v>
+        <v>31.89127369313081</v>
       </c>
       <c r="AO8" t="n">
-        <v>35.8264509336823</v>
+        <v>19.62998282886564</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.48939592224657</v>
+        <v>38.83214425103767</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14.99209176364261</v>
+        <v>72.44849752029353</v>
       </c>
       <c r="AR8" t="n">
-        <v>10.66242982598818</v>
+        <v>11.29723825467495</v>
       </c>
       <c r="AS8" t="n">
-        <v>14.31668063974822</v>
+        <v>45.00723267513303</v>
       </c>
       <c r="AT8" t="n">
-        <v>29.12401590023853</v>
+        <v>14.44230954398922</v>
       </c>
       <c r="AU8" t="n">
-        <v>27.99413687868669</v>
+        <v>29.9266351080889</v>
       </c>
       <c r="AV8" t="n">
-        <v>13.78072214405051</v>
+        <v>27.40921397284887</v>
       </c>
       <c r="AW8" t="n">
-        <v>27.21720443412526</v>
+        <v>26.53826049038692</v>
       </c>
       <c r="AX8" t="n">
-        <v>17.07473169738449</v>
+        <v>26.95566544921341</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.132467263372095</v>
+        <v>1.917749045622095</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.0789194404368</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6278643354556105</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.740207567002142</v>
       </c>
       <c r="G9" t="n">
-        <v>1.720196174845101</v>
+        <v>7.703192311965809</v>
       </c>
       <c r="H9" t="n">
-        <v>3.12390815472875</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.257737955821219</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.490193686514183</v>
+        <v>0.7343352659414649</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2420298379618652</v>
+        <v>0.6883317812011263</v>
       </c>
       <c r="L9" t="n">
-        <v>2.134254413196389</v>
+        <v>1.278489519491595</v>
       </c>
       <c r="M9" t="n">
-        <v>3.22080952066116</v>
+        <v>4.16949080214781</v>
       </c>
       <c r="N9" t="n">
-        <v>1.030801729182273</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.025093289282853</v>
+        <v>5.892879094109925</v>
       </c>
       <c r="P9" t="n">
-        <v>2.833243018112023</v>
+        <v>3.302578235098951</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.837676377363719</v>
+        <v>4.540800335963013</v>
       </c>
       <c r="R9" t="n">
-        <v>3.40828116990641</v>
+        <v>7.792572777818759</v>
       </c>
       <c r="S9" t="n">
-        <v>8.485252815023202</v>
+        <v>12.56250259889199</v>
       </c>
       <c r="T9" t="n">
-        <v>1.207905718255419</v>
+        <v>2.886502931070168</v>
       </c>
       <c r="U9" t="n">
-        <v>1.230472949324135</v>
+        <v>3.393646703017993</v>
       </c>
       <c r="V9" t="n">
-        <v>5.80164070565649</v>
+        <v>9.296061308134782</v>
       </c>
       <c r="W9" t="n">
-        <v>3.064050880662822</v>
+        <v>7.311192667494854</v>
       </c>
       <c r="X9" t="n">
-        <v>9.957691567102671</v>
+        <v>1.994593091141673</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.460475685986179</v>
+        <v>5.698469209093834</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.913767937480319</v>
+        <v>1.3739331601286</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.221419646511996</v>
+        <v>5.45187591292596</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.02356677009705</v>
+        <v>2.44771517252922</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.03196398879643</v>
+        <v>7.24185650889028</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.810483336235152</v>
+        <v>2.357670900918869</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.267609964958073</v>
+        <v>0.2412868143328853</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.804520530977458</v>
+        <v>5.79730037044775</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.972774829523519</v>
+        <v>4.191281397299876</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.044882800165299</v>
+        <v>4.368132584944757</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.492935943349689</v>
+        <v>7.083589386791216</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.213200123548974</v>
+        <v>5.223415631977957</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.064144097399511</v>
+        <v>6.574276625999027</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.796760506696367</v>
+        <v>6.362205420953165</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.34927056763899</v>
+        <v>1.878772113864593</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.990815066299971</v>
+        <v>5.961080998964855</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.53877395108197</v>
+        <v>3.783330441601213</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.398176154878311</v>
+        <v>2.567566485614232</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.03263247213886</v>
+        <v>3.61368640047122</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.560416162300049</v>
+        <v>11.52635741307211</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.594440038194072</v>
+        <v>1.603202484171574</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.295831561070229</v>
+        <v>5.302243881064182</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.084947585590378</v>
+        <v>3.229629930475459</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>6.914273888374214</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.186513150100606</v>
+        <v>4.278630035749001</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.785452000862621</v>
+        <v>3.90958356307983</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>10.05349496296584</v>
+        <v>34.76545132639812</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.614322914273368</v>
+        <v>28.35714098320357</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8.072752258949068</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>29.56084447352939</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>154.0797626176663</v>
+        <v>3.590297191238638</v>
       </c>
       <c r="J10" t="n">
-        <v>77.45289805024288</v>
+        <v>76.6715021175761</v>
       </c>
       <c r="K10" t="n">
-        <v>83.7603006229304</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>211.3821196410223</v>
+        <v>60.20069435819349</v>
       </c>
       <c r="M10" t="n">
-        <v>29.85928248555863</v>
+        <v>107.6097831066363</v>
       </c>
       <c r="N10" t="n">
-        <v>44.32568711368853</v>
+        <v>14.32546125699136</v>
       </c>
       <c r="O10" t="n">
-        <v>49.32280189358674</v>
+        <v>73.55206493527655</v>
       </c>
       <c r="P10" t="n">
-        <v>95.15612361951113</v>
+        <v>1.379675578680832</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.47142094162218</v>
+        <v>25.11099766067404</v>
       </c>
       <c r="R10" t="n">
-        <v>68.46202107732179</v>
+        <v>210.8329651385773</v>
       </c>
       <c r="S10" t="n">
-        <v>26.57898823467811</v>
+        <v>84.09060549178393</v>
       </c>
       <c r="T10" t="n">
-        <v>14.24077661240963</v>
+        <v>72.2946610190771</v>
       </c>
       <c r="U10" t="n">
-        <v>3.949573961758546</v>
+        <v>134.6566636803407</v>
       </c>
       <c r="V10" t="n">
-        <v>42.87653075996801</v>
+        <v>59.97524346307247</v>
       </c>
       <c r="W10" t="n">
-        <v>60.28018772954594</v>
+        <v>94.62489376169124</v>
       </c>
       <c r="X10" t="n">
-        <v>46.27476266242014</v>
+        <v>83.4238322492931</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.27247859044803</v>
+        <v>44.47217450866134</v>
       </c>
       <c r="Z10" t="n">
-        <v>40.22312302028924</v>
+        <v>39.00443721930768</v>
       </c>
       <c r="AA10" t="n">
-        <v>39.56355195523964</v>
+        <v>41.78194231705873</v>
       </c>
       <c r="AB10" t="n">
-        <v>121.782443716188</v>
+        <v>100.3089031604324</v>
       </c>
       <c r="AC10" t="n">
-        <v>64.52358813156846</v>
+        <v>33.0301081370344</v>
       </c>
       <c r="AD10" t="n">
-        <v>112.8279364758322</v>
+        <v>51.90686120446961</v>
       </c>
       <c r="AE10" t="n">
-        <v>131.2274861566386</v>
+        <v>85.1612259938661</v>
       </c>
       <c r="AF10" t="n">
-        <v>99.82010528272662</v>
+        <v>73.06686748796326</v>
       </c>
       <c r="AG10" t="n">
-        <v>55.58746352472461</v>
+        <v>34.48881104062905</v>
       </c>
       <c r="AH10" t="n">
-        <v>47.62313096417913</v>
+        <v>47.43711328285138</v>
       </c>
       <c r="AI10" t="n">
-        <v>56.06923645521373</v>
+        <v>29.32198184958462</v>
       </c>
       <c r="AJ10" t="n">
-        <v>47.2567074995959</v>
+        <v>46.7558100541133</v>
       </c>
       <c r="AK10" t="n">
-        <v>61.86917466959211</v>
+        <v>75.20876555792782</v>
       </c>
       <c r="AL10" t="n">
-        <v>87.18986127702254</v>
+        <v>44.22268316930978</v>
       </c>
       <c r="AM10" t="n">
-        <v>9.584740171280895</v>
+        <v>9.266845819553813</v>
       </c>
       <c r="AN10" t="n">
-        <v>25.80282118329315</v>
+        <v>31.04320684807254</v>
       </c>
       <c r="AO10" t="n">
-        <v>13.91140138381144</v>
+        <v>37.4240160079164</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.49732205486893</v>
+        <v>14.48093846293524</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12.12944558823767</v>
+        <v>20.39500353655924</v>
       </c>
       <c r="AR10" t="n">
-        <v>14.53923604903598</v>
+        <v>5.515057431275777</v>
       </c>
       <c r="AS10" t="n">
-        <v>11.0822633926737</v>
+        <v>64.65268436511268</v>
       </c>
       <c r="AT10" t="n">
-        <v>12.68760096618094</v>
+        <v>31.57520494975003</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.958771502529263</v>
+        <v>14.84729848638237</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.76083087156862</v>
+        <v>19.1054996683284</v>
       </c>
       <c r="AW10" t="n">
-        <v>16.20566314787342</v>
+        <v>49.79314989564791</v>
       </c>
       <c r="AX10" t="n">
-        <v>9.23754551629259</v>
+        <v>9.396847926536056</v>
       </c>
     </row>
     <row r="11">
@@ -2061,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.76459970729801</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2070,139 +2070,139 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11.59035872414055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.18075004133423</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>43.8845640424376</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>52.38713452003326</v>
+        <v>6.222386968323384</v>
       </c>
       <c r="J11" t="n">
-        <v>9.370022518827316</v>
+        <v>132.0317737149923</v>
       </c>
       <c r="K11" t="n">
-        <v>121.2749872491237</v>
+        <v>203.0414038085541</v>
       </c>
       <c r="L11" t="n">
-        <v>19.20665328994322</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>61.35367714393515</v>
+        <v>34.92444749609917</v>
       </c>
       <c r="N11" t="n">
-        <v>16.46728465021146</v>
+        <v>62.07053259812294</v>
       </c>
       <c r="O11" t="n">
-        <v>80.04865152673865</v>
+        <v>97.49325141263418</v>
       </c>
       <c r="P11" t="n">
-        <v>27.35245347162919</v>
+        <v>31.49596235572021</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.53076639963945</v>
+        <v>15.99355643880589</v>
       </c>
       <c r="R11" t="n">
-        <v>23.25188526418715</v>
+        <v>58.0676783391856</v>
       </c>
       <c r="S11" t="n">
-        <v>88.9610107027865</v>
+        <v>98.12174111012102</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>79.74685146881673</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3724419066779</v>
+        <v>112.2719827417874</v>
       </c>
       <c r="V11" t="n">
-        <v>78.14897037447982</v>
+        <v>104.9571520038792</v>
       </c>
       <c r="W11" t="n">
-        <v>52.659586913202</v>
+        <v>56.55967993877677</v>
       </c>
       <c r="X11" t="n">
-        <v>53.41491225519039</v>
+        <v>117.3119890332785</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.97938038096662</v>
+        <v>103.0413462862147</v>
       </c>
       <c r="Z11" t="n">
-        <v>37.07071743689598</v>
+        <v>23.46098716119903</v>
       </c>
       <c r="AA11" t="n">
-        <v>23.28255451425246</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>29.37969873728474</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>34.57792424478881</v>
+        <v>18.2357980164625</v>
       </c>
       <c r="AD11" t="n">
-        <v>30.1705442481585</v>
+        <v>39.20176009073553</v>
       </c>
       <c r="AE11" t="n">
-        <v>60.39418057983816</v>
+        <v>29.03959621277562</v>
       </c>
       <c r="AF11" t="n">
-        <v>33.77093001083539</v>
+        <v>29.58190450665914</v>
       </c>
       <c r="AG11" t="n">
-        <v>37.68991962171003</v>
+        <v>43.44049539578983</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5187440057823</v>
+        <v>87.55941319199069</v>
       </c>
       <c r="AI11" t="n">
-        <v>28.0656864162073</v>
+        <v>3.204370707682262</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21.19636819015154</v>
+        <v>68.16971234497538</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>5.696542506609051</v>
       </c>
       <c r="AL11" t="n">
-        <v>11.99153396668257</v>
+        <v>33.92068934128598</v>
       </c>
       <c r="AM11" t="n">
-        <v>6.736677206190002</v>
+        <v>11.34232636811156</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.649269311662682</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>23.32149525406455</v>
+        <v>2.204643087047151</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.670845666064434</v>
+        <v>31.67175020876429</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>20.49139407770578</v>
       </c>
       <c r="AR11" t="n">
-        <v>22.43165213603436</v>
+        <v>2.597090818757146</v>
       </c>
       <c r="AS11" t="n">
-        <v>32.94565200614503</v>
+        <v>32.58552607836689</v>
       </c>
       <c r="AT11" t="n">
-        <v>26.05017591716516</v>
+        <v>10.12432049150172</v>
       </c>
       <c r="AU11" t="n">
-        <v>41.1015097916987</v>
+        <v>34.51400911721071</v>
       </c>
       <c r="AV11" t="n">
-        <v>37.40697410880299</v>
+        <v>20.67271416552634</v>
       </c>
       <c r="AW11" t="n">
-        <v>15.58767146234802</v>
+        <v>25.44278668145078</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.404745293831182</v>
+        <v>9.650319070460718</v>
       </c>
     </row>
     <row r="12">
@@ -2219,142 +2219,142 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3.37153658616441</v>
       </c>
       <c r="F12" t="n">
-        <v>13.75794664068725</v>
+        <v>15.50903408765218</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.913644809056567</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.873688366236476</v>
       </c>
       <c r="J12" t="n">
-        <v>3.345845842575982</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>41.46648108666095</v>
+        <v>22.46827807092799</v>
       </c>
       <c r="L12" t="n">
-        <v>12.44446641968604</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4290587672635</v>
+        <v>59.00380522865377</v>
       </c>
       <c r="N12" t="n">
-        <v>4.870665703306848</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>18.69799313352913</v>
+        <v>16.56009566962281</v>
       </c>
       <c r="P12" t="n">
-        <v>28.62536657991577</v>
+        <v>26.4847117029123</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.59945865516315</v>
+        <v>6.734048149336449</v>
       </c>
       <c r="R12" t="n">
-        <v>10.65941996240017</v>
+        <v>38.89668333136576</v>
       </c>
       <c r="S12" t="n">
-        <v>10.54292644787465</v>
+        <v>21.30709889834778</v>
       </c>
       <c r="T12" t="n">
-        <v>14.88646163346956</v>
+        <v>2.88322689047555</v>
       </c>
       <c r="U12" t="n">
-        <v>22.24447008085227</v>
+        <v>22.26142593159133</v>
       </c>
       <c r="V12" t="n">
-        <v>16.35568933966224</v>
+        <v>21.22965984374784</v>
       </c>
       <c r="W12" t="n">
-        <v>18.7408203173593</v>
+        <v>32.63001059453332</v>
       </c>
       <c r="X12" t="n">
-        <v>8.777585246459992</v>
+        <v>14.89342411672105</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.18204200533452</v>
+        <v>15.73472672664471</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.381544592774</v>
+        <v>10.78457788518945</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.99725118744732</v>
+        <v>2.975810950581859</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.63509728234677</v>
+        <v>20.21244883375481</v>
       </c>
       <c r="AC12" t="n">
-        <v>40.07566692620091</v>
+        <v>5.708127511102042</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.37842106052891</v>
+        <v>17.09291971988379</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.971040901236774</v>
+        <v>30.39613274978939</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.01464782764826</v>
+        <v>8.314571568673445</v>
       </c>
       <c r="AG12" t="n">
-        <v>28.28476588936324</v>
+        <v>9.719382903724179</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.724121342592385</v>
+        <v>17.12900339795228</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.99872952211067</v>
+        <v>14.2871131041644</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.91154433731095</v>
+        <v>8.619954768447961</v>
       </c>
       <c r="AK12" t="n">
-        <v>12.88463394546665</v>
+        <v>16.15438485240059</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.494969553579956</v>
+        <v>15.58672824783816</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.910889107018347</v>
+        <v>8.487067788670672</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.45344937466779</v>
+        <v>2.205727102124962</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.149822243240582</v>
+        <v>2.995605078024474</v>
       </c>
       <c r="AP12" t="n">
-        <v>5.690566360404425</v>
+        <v>0.1413265704806237</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.110861631443695</v>
+        <v>4.349895477280268</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.659705317560988</v>
+        <v>1.389977919339559</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.936855844479897</v>
+        <v>4.544530441006909</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.859032594809928</v>
+        <v>7.031504406315263</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.012446605515704</v>
+        <v>1.389107445420367</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.6538163872941073</v>
+        <v>0.01526698746818211</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.852226655461634</v>
+        <v>2.692304338339522</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.2233704139718238</v>
+        <v>6.252171140201781</v>
       </c>
     </row>
     <row r="13">
@@ -2368,145 +2368,145 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.64662584628463</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.4905127261557</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>16.48618780763255</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.586490121839542</v>
       </c>
       <c r="I13" t="n">
-        <v>8.587735122250852</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44715281921461</v>
+        <v>41.71240064032146</v>
       </c>
       <c r="K13" t="n">
-        <v>60.12330236483833</v>
+        <v>41.56707896387784</v>
       </c>
       <c r="L13" t="n">
-        <v>64.92196022933939</v>
+        <v>37.64955940106888</v>
       </c>
       <c r="M13" t="n">
-        <v>19.30433787898136</v>
+        <v>41.17893725263366</v>
       </c>
       <c r="N13" t="n">
-        <v>101.6931835862558</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>15.94402158715469</v>
+        <v>39.20373803550772</v>
       </c>
       <c r="P13" t="n">
-        <v>43.84296589800826</v>
+        <v>73.52658696865066</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.55852487354155</v>
+        <v>88.1110575873136</v>
       </c>
       <c r="R13" t="n">
-        <v>8.996667949158638</v>
+        <v>4.424622870568079</v>
       </c>
       <c r="S13" t="n">
-        <v>34.71674824678603</v>
+        <v>2.03527913559173</v>
       </c>
       <c r="T13" t="n">
-        <v>20.40009894298933</v>
+        <v>34.11087055296595</v>
       </c>
       <c r="U13" t="n">
-        <v>22.85825641467949</v>
+        <v>45.32019345850538</v>
       </c>
       <c r="V13" t="n">
-        <v>29.57943710013645</v>
+        <v>7.328080111662928</v>
       </c>
       <c r="W13" t="n">
-        <v>1.666859388577861</v>
+        <v>42.47303451117358</v>
       </c>
       <c r="X13" t="n">
-        <v>40.87315706091546</v>
+        <v>121.928686623761</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.82889889591863</v>
+        <v>11.98459324643495</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.1484778938563</v>
+        <v>6.38476896926256</v>
       </c>
       <c r="AA13" t="n">
-        <v>33.60148777346421</v>
+        <v>16.15982733774105</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.91400547912762</v>
+        <v>8.107114074661016</v>
       </c>
       <c r="AC13" t="n">
-        <v>19.27365289150537</v>
+        <v>23.73370410661352</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.211555093608208</v>
+        <v>9.357644847149198</v>
       </c>
       <c r="AE13" t="n">
-        <v>28.13315480133416</v>
+        <v>2.306541825322602</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.49677396543184</v>
+        <v>54.22671604444933</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.755438718455764</v>
+        <v>2.792428481697712</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.772572522130121</v>
+        <v>9.182981940580026</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.672939060549567</v>
+        <v>2.802444145974157</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.95206946612117</v>
+        <v>3.638163889530576</v>
       </c>
       <c r="AK13" t="n">
-        <v>8.729687950655931</v>
+        <v>4.947079351252914</v>
       </c>
       <c r="AL13" t="n">
-        <v>3.798635286925942</v>
+        <v>3.796877974869608</v>
       </c>
       <c r="AM13" t="n">
-        <v>34.58833127414591</v>
+        <v>24.45224384926337</v>
       </c>
       <c r="AN13" t="n">
-        <v>19.00829245225718</v>
+        <v>10.9861553588944</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.30060143098371</v>
+        <v>6.16413003784294</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>16.2329419813451</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>3.121080231057213</v>
       </c>
       <c r="AR13" t="n">
-        <v>22.33198063616135</v>
+        <v>0.3612131692233451</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.821079763525215</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.788949785717756</v>
+        <v>3.725421799488194</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.998731546015755</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>5.166344549421247</v>
+        <v>11.33196936621855</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>6.138765056587986</v>
       </c>
       <c r="AX13" t="n">
-        <v>12.94731627248859</v>
+        <v>10.35853849980298</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3.267513117746422</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>21.34588463497654</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>37.0084015568663</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.62128364477759</v>
+        <v>11.08084019309058</v>
       </c>
       <c r="H14" t="n">
-        <v>17.87082829146399</v>
+        <v>28.51253459221599</v>
       </c>
       <c r="I14" t="n">
-        <v>59.24388298373674</v>
+        <v>39.54377747475494</v>
       </c>
       <c r="J14" t="n">
-        <v>86.86413901754864</v>
+        <v>3.001592801606275</v>
       </c>
       <c r="K14" t="n">
-        <v>51.3988704227154</v>
+        <v>32.65137398470075</v>
       </c>
       <c r="L14" t="n">
-        <v>19.70639670862477</v>
+        <v>45.99740709038667</v>
       </c>
       <c r="M14" t="n">
-        <v>13.93196823335959</v>
+        <v>48.10320747857729</v>
       </c>
       <c r="N14" t="n">
-        <v>37.74704373027166</v>
+        <v>145.1007217523428</v>
       </c>
       <c r="O14" t="n">
-        <v>21.83393922515564</v>
+        <v>155.1827294816937</v>
       </c>
       <c r="P14" t="n">
-        <v>39.10963396024368</v>
+        <v>103.0159819333568</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.35068678261744</v>
+        <v>64.26687699010731</v>
       </c>
       <c r="R14" t="n">
-        <v>62.26805719013495</v>
+        <v>112.8467773068474</v>
       </c>
       <c r="S14" t="n">
-        <v>75.74630071488797</v>
+        <v>45.22030288221947</v>
       </c>
       <c r="T14" t="n">
-        <v>46.40012373622517</v>
+        <v>56.95932020770743</v>
       </c>
       <c r="U14" t="n">
-        <v>316.7534688369818</v>
+        <v>17.28962322563897</v>
       </c>
       <c r="V14" t="n">
-        <v>60.10240357994719</v>
+        <v>24.54932861457857</v>
       </c>
       <c r="W14" t="n">
-        <v>109.9008782816241</v>
+        <v>48.88134276652249</v>
       </c>
       <c r="X14" t="n">
-        <v>60.4965057476709</v>
+        <v>24.53668172015094</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.14581023120101</v>
+        <v>29.25216382612102</v>
       </c>
       <c r="Z14" t="n">
-        <v>67.10003196054636</v>
+        <v>27.01197928908148</v>
       </c>
       <c r="AA14" t="n">
-        <v>109.8737261464771</v>
+        <v>30.14072665609</v>
       </c>
       <c r="AB14" t="n">
-        <v>90.77181566679258</v>
+        <v>102.3737870116886</v>
       </c>
       <c r="AC14" t="n">
-        <v>127.1649541047413</v>
+        <v>81.53267606769469</v>
       </c>
       <c r="AD14" t="n">
-        <v>168.9110224232607</v>
+        <v>135.0331507612327</v>
       </c>
       <c r="AE14" t="n">
-        <v>136.0297903630117</v>
+        <v>137.8462353410665</v>
       </c>
       <c r="AF14" t="n">
-        <v>30.87100350881529</v>
+        <v>26.85631202802537</v>
       </c>
       <c r="AG14" t="n">
-        <v>134.4084395926459</v>
+        <v>111.8825084231324</v>
       </c>
       <c r="AH14" t="n">
-        <v>95.50435367974127</v>
+        <v>93.78471288435991</v>
       </c>
       <c r="AI14" t="n">
-        <v>106.2502647687747</v>
+        <v>124.0923388838206</v>
       </c>
       <c r="AJ14" t="n">
-        <v>56.74528534118718</v>
+        <v>59.91587424724355</v>
       </c>
       <c r="AK14" t="n">
-        <v>45.04082298893871</v>
+        <v>116.3625545931206</v>
       </c>
       <c r="AL14" t="n">
-        <v>48.80672591606208</v>
+        <v>166.6488782626236</v>
       </c>
       <c r="AM14" t="n">
-        <v>24.88287907677903</v>
+        <v>28.10616082958805</v>
       </c>
       <c r="AN14" t="n">
-        <v>53.33135088492289</v>
+        <v>19.86807263308057</v>
       </c>
       <c r="AO14" t="n">
-        <v>48.17939676396144</v>
+        <v>15.60718620040487</v>
       </c>
       <c r="AP14" t="n">
-        <v>23.5129432073949</v>
+        <v>14.71753036686216</v>
       </c>
       <c r="AQ14" t="n">
-        <v>38.07226345975059</v>
+        <v>41.27381042906439</v>
       </c>
       <c r="AR14" t="n">
-        <v>19.65054141955213</v>
+        <v>21.00007653985095</v>
       </c>
       <c r="AS14" t="n">
-        <v>33.72297643688658</v>
+        <v>14.68179740860277</v>
       </c>
       <c r="AT14" t="n">
-        <v>18.00136716053413</v>
+        <v>19.09871807536771</v>
       </c>
       <c r="AU14" t="n">
-        <v>25.1282914785385</v>
+        <v>46.78250869182246</v>
       </c>
       <c r="AV14" t="n">
-        <v>11.1682733366866</v>
+        <v>33.31640105706632</v>
       </c>
       <c r="AW14" t="n">
-        <v>20.63828250443441</v>
+        <v>47.21483402589642</v>
       </c>
       <c r="AX14" t="n">
-        <v>22.3659645769061</v>
+        <v>29.9671061655963</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>8.49782639599095</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.148913949670912</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6944176287604082</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.149093906625114</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.988949407942334</v>
       </c>
       <c r="H15" t="n">
-        <v>1.424867317754672</v>
+        <v>1.622743613081769</v>
       </c>
       <c r="I15" t="n">
-        <v>3.375246105299434</v>
+        <v>3.044128384171841</v>
       </c>
       <c r="J15" t="n">
-        <v>3.287157987345704</v>
+        <v>11.44504576687171</v>
       </c>
       <c r="K15" t="n">
-        <v>1.720904283736516</v>
+        <v>5.195398167887887</v>
       </c>
       <c r="L15" t="n">
-        <v>1.245149815063352</v>
+        <v>1.659999941061457</v>
       </c>
       <c r="M15" t="n">
-        <v>2.027139709435992</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2.754501683181006</v>
+        <v>2.116544581202785</v>
       </c>
       <c r="O15" t="n">
-        <v>5.348593253614416</v>
+        <v>3.629452224665155</v>
       </c>
       <c r="P15" t="n">
-        <v>4.947600926528797</v>
+        <v>4.7703071447153</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.661150899608616</v>
+        <v>2.312636340127492</v>
       </c>
       <c r="R15" t="n">
-        <v>8.918799783729899</v>
+        <v>6.276435196340241</v>
       </c>
       <c r="S15" t="n">
-        <v>4.630602409598359</v>
+        <v>6.436336996686182</v>
       </c>
       <c r="T15" t="n">
-        <v>6.460549258850383</v>
+        <v>0.198414844219888</v>
       </c>
       <c r="U15" t="n">
-        <v>2.139831766775075</v>
+        <v>12.74501168533502</v>
       </c>
       <c r="V15" t="n">
-        <v>6.450653091815026</v>
+        <v>2.003076670237494</v>
       </c>
       <c r="W15" t="n">
-        <v>1.301884573544335</v>
+        <v>2.587546117900815</v>
       </c>
       <c r="X15" t="n">
-        <v>5.783764262382262</v>
+        <v>0.9051829602199843</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.098177537186538</v>
+        <v>4.983007075443994</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.414598649450727</v>
+        <v>3.184095287496465</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.22823533991681</v>
+        <v>2.828377468714278</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.056153874391843</v>
+        <v>2.875496177874397</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.726996093745573</v>
+        <v>6.52175392144378</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.112025080651183</v>
+        <v>2.848570349168306</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.03069509035223</v>
+        <v>3.607835301679803</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.234813365669805</v>
+        <v>5.69033557399615</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.59966045967582</v>
+        <v>8.915482853466672</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.88012880277113</v>
+        <v>6.663626677329924</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.643884617331983</v>
+        <v>3.320027998008543</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.28833795156335</v>
+        <v>7.659693172199573</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.25833777166048</v>
+        <v>5.557124416945274</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.874701083536001</v>
+        <v>4.323851463641163</v>
       </c>
       <c r="AM15" t="n">
-        <v>3.025764248020419</v>
+        <v>2.803632429510686</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.727633650402604</v>
+        <v>6.915558157889945</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.531726978750751</v>
+        <v>4.957255880148073</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.034799130409159</v>
+        <v>3.105074885953091</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.515374861406377</v>
+        <v>4.871570267423651</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.825668030955604</v>
+        <v>4.472717336522164</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.404442989161142</v>
+        <v>5.006043833490184</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.26786827953342</v>
+        <v>6.533587317723061</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.399849607000525</v>
+        <v>4.455696832378194</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.4137404296744703</v>
+        <v>4.825218185201789</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.0603743704523</v>
+        <v>7.051264664316373</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.3433366259766917</v>
+        <v>3.639222350012036</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>29.90519673495768</v>
+        <v>15.70467958904297</v>
       </c>
       <c r="D16" t="n">
-        <v>4.812852322009521</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.950453148639919</v>
+        <v>2.279114365378789</v>
       </c>
       <c r="F16" t="n">
-        <v>15.02332997514155</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.36048197573546</v>
       </c>
       <c r="H16" t="n">
-        <v>27.98881391858799</v>
+        <v>27.78365706882903</v>
       </c>
       <c r="I16" t="n">
-        <v>16.06787761961405</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.19202014915819</v>
+        <v>85.92917710439721</v>
       </c>
       <c r="K16" t="n">
-        <v>16.29264186197598</v>
+        <v>78.21581087468152</v>
       </c>
       <c r="L16" t="n">
-        <v>49.7794891510154</v>
+        <v>17.57716610463218</v>
       </c>
       <c r="M16" t="n">
-        <v>8.789450630923991</v>
+        <v>67.25016471486329</v>
       </c>
       <c r="N16" t="n">
-        <v>104.4809829828167</v>
+        <v>85.73452801918205</v>
       </c>
       <c r="O16" t="n">
-        <v>98.47727852667519</v>
+        <v>35.33989544707168</v>
       </c>
       <c r="P16" t="n">
-        <v>105.8656332403694</v>
+        <v>72.1309789511736</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.18305793451501</v>
+        <v>56.03447408477052</v>
       </c>
       <c r="R16" t="n">
-        <v>54.80520943912177</v>
+        <v>4.695258768699624</v>
       </c>
       <c r="S16" t="n">
-        <v>34.62181085953286</v>
+        <v>22.09283256346722</v>
       </c>
       <c r="T16" t="n">
-        <v>39.62147147743624</v>
+        <v>58.44543473943249</v>
       </c>
       <c r="U16" t="n">
-        <v>88.21132241168748</v>
+        <v>61.82339453483559</v>
       </c>
       <c r="V16" t="n">
-        <v>71.27380799691302</v>
+        <v>59.05679204063935</v>
       </c>
       <c r="W16" t="n">
-        <v>59.68708199923699</v>
+        <v>76.31516247143222</v>
       </c>
       <c r="X16" t="n">
-        <v>96.67758213649401</v>
+        <v>24.43446372075141</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.83415414428792</v>
+        <v>188.4976036069065</v>
       </c>
       <c r="Z16" t="n">
-        <v>84.8275780894393</v>
+        <v>93.77659561261572</v>
       </c>
       <c r="AA16" t="n">
-        <v>36.67849581428483</v>
+        <v>89.86905799171888</v>
       </c>
       <c r="AB16" t="n">
-        <v>76.88310299009046</v>
+        <v>61.72338508722432</v>
       </c>
       <c r="AC16" t="n">
-        <v>87.7689261643788</v>
+        <v>127.971270195741</v>
       </c>
       <c r="AD16" t="n">
-        <v>111.2980820754391</v>
+        <v>40.59685591008284</v>
       </c>
       <c r="AE16" t="n">
-        <v>71.00505518699785</v>
+        <v>95.11114148326621</v>
       </c>
       <c r="AF16" t="n">
-        <v>37.65098438121083</v>
+        <v>18.65421059229551</v>
       </c>
       <c r="AG16" t="n">
-        <v>133.5240203124173</v>
+        <v>100.0902976894826</v>
       </c>
       <c r="AH16" t="n">
-        <v>36.88034702447895</v>
+        <v>66.47686291967828</v>
       </c>
       <c r="AI16" t="n">
-        <v>45.04680847192617</v>
+        <v>69.06342932989759</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25.65229657795657</v>
+        <v>66.52373515927502</v>
       </c>
       <c r="AK16" t="n">
-        <v>46.53189938059299</v>
+        <v>29.84010438350242</v>
       </c>
       <c r="AL16" t="n">
-        <v>62.14938952130943</v>
+        <v>50.88630005687025</v>
       </c>
       <c r="AM16" t="n">
-        <v>40.47821320918234</v>
+        <v>17.25028305875745</v>
       </c>
       <c r="AN16" t="n">
-        <v>26.26348513324863</v>
+        <v>35.9312531563736</v>
       </c>
       <c r="AO16" t="n">
-        <v>44.06790142250946</v>
+        <v>13.29403475087904</v>
       </c>
       <c r="AP16" t="n">
-        <v>18.16203193283977</v>
+        <v>10.94833532398997</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8.781664190962845</v>
+        <v>15.32555558649287</v>
       </c>
       <c r="AR16" t="n">
-        <v>28.49926650711993</v>
+        <v>18.61731499858095</v>
       </c>
       <c r="AS16" t="n">
-        <v>8.073598461445421</v>
+        <v>10.13370198053112</v>
       </c>
       <c r="AT16" t="n">
-        <v>19.8038620841643</v>
+        <v>11.97988870010531</v>
       </c>
       <c r="AU16" t="n">
-        <v>21.77454282392162</v>
+        <v>4.793023195474539</v>
       </c>
       <c r="AV16" t="n">
-        <v>7.709947720268825</v>
+        <v>19.41821977744172</v>
       </c>
       <c r="AW16" t="n">
-        <v>35.05315838726872</v>
+        <v>13.72975913546441</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.223597650084205</v>
+        <v>5.074630005792397</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>25.32715897255391</v>
+        <v>75.20701105185529</v>
       </c>
       <c r="D17" t="n">
-        <v>20.07650881466381</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>12.95333368570488</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.603105437775458</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>15.43051306395981</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.539099453312843</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.10342637654318</v>
+        <v>12.9098427612617</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>28.31294550335351</v>
+        <v>32.9088195563201</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>64.58356685906683</v>
       </c>
       <c r="N17" t="n">
-        <v>43.67139800249305</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>66.06240043092586</v>
+        <v>70.43830137331216</v>
       </c>
       <c r="P17" t="n">
-        <v>42.48353896836863</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.82813487376963</v>
+        <v>23.29683393806408</v>
       </c>
       <c r="R17" t="n">
-        <v>19.13911878388609</v>
+        <v>77.28117539314232</v>
       </c>
       <c r="S17" t="n">
-        <v>2.630535002098426</v>
+        <v>38.99784933811694</v>
       </c>
       <c r="T17" t="n">
-        <v>9.791196074237231</v>
+        <v>54.96095186893915</v>
       </c>
       <c r="U17" t="n">
-        <v>18.99624469914205</v>
+        <v>3.091719112477346</v>
       </c>
       <c r="V17" t="n">
-        <v>64.33085054953855</v>
+        <v>25.60970398149853</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.576730399419105</v>
       </c>
       <c r="X17" t="n">
-        <v>19.30469636505616</v>
+        <v>35.1333801757887</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.91084139731269</v>
+        <v>60.26107461230834</v>
       </c>
       <c r="Z17" t="n">
-        <v>48.78720018887306</v>
+        <v>26.26224827047675</v>
       </c>
       <c r="AA17" t="n">
-        <v>97.44881723842133</v>
+        <v>25.37613370391025</v>
       </c>
       <c r="AB17" t="n">
-        <v>60.60269494107164</v>
+        <v>102.4142827691437</v>
       </c>
       <c r="AC17" t="n">
-        <v>50.64759855598805</v>
+        <v>27.37517077399487</v>
       </c>
       <c r="AD17" t="n">
-        <v>58.64711735925561</v>
+        <v>4.399914881540179</v>
       </c>
       <c r="AE17" t="n">
-        <v>21.4068012534392</v>
+        <v>11.400384015849</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.72885666949366</v>
+        <v>63.13955327639452</v>
       </c>
       <c r="AG17" t="n">
-        <v>24.74539127445324</v>
+        <v>16.63810412794814</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.44197081082373</v>
+        <v>10.96081894128038</v>
       </c>
       <c r="AI17" t="n">
-        <v>27.88293226950114</v>
+        <v>14.00297943314684</v>
       </c>
       <c r="AJ17" t="n">
-        <v>62.42102852607186</v>
+        <v>47.57023046681815</v>
       </c>
       <c r="AK17" t="n">
-        <v>8.430981174294992</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>35.26517707649947</v>
+        <v>58.02046761219101</v>
       </c>
       <c r="AM17" t="n">
-        <v>27.8987274232193</v>
+        <v>14.55090344655888</v>
       </c>
       <c r="AN17" t="n">
-        <v>33.04699661127882</v>
+        <v>12.35516853174934</v>
       </c>
       <c r="AO17" t="n">
-        <v>28.70063992470866</v>
+        <v>12.25803634093178</v>
       </c>
       <c r="AP17" t="n">
-        <v>22.93217181194898</v>
+        <v>19.94538941925509</v>
       </c>
       <c r="AQ17" t="n">
-        <v>40.26759497036567</v>
+        <v>41.12989589541682</v>
       </c>
       <c r="AR17" t="n">
-        <v>38.77851375351969</v>
+        <v>17.2715185864913</v>
       </c>
       <c r="AS17" t="n">
-        <v>23.2282703313809</v>
+        <v>31.68951372209621</v>
       </c>
       <c r="AT17" t="n">
-        <v>10.64283730188472</v>
+        <v>8.969109799306343</v>
       </c>
       <c r="AU17" t="n">
-        <v>21.71201436122188</v>
+        <v>13.7126590022052</v>
       </c>
       <c r="AV17" t="n">
-        <v>33.64491832677805</v>
+        <v>32.7588489813974</v>
       </c>
       <c r="AW17" t="n">
-        <v>33.57421170321926</v>
+        <v>20.88665396826842</v>
       </c>
       <c r="AX17" t="n">
-        <v>8.676159477281795</v>
+        <v>37.69199258078978</v>
       </c>
     </row>
     <row r="18">
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.860683517077798</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3137,136 +3137,136 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.560308287131519</v>
+        <v>5.058928042050015</v>
       </c>
       <c r="H18" t="n">
-        <v>5.960161415235301</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11.84461822499025</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>26.62641606640765</v>
+        <v>6.503794195502687</v>
       </c>
       <c r="K18" t="n">
-        <v>11.12286594259293</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>24.36778618481301</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>24.78609071534173</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>8.322791623242519</v>
+        <v>7.151882849406203</v>
       </c>
       <c r="O18" t="n">
-        <v>25.67240219572671</v>
+        <v>82.18052254294675</v>
       </c>
       <c r="P18" t="n">
-        <v>47.03032303664316</v>
+        <v>35.80768917761279</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.369013895019062</v>
+        <v>18.05780726720892</v>
       </c>
       <c r="R18" t="n">
-        <v>74.59993815386269</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>45.07245184026652</v>
+        <v>31.41237058672565</v>
       </c>
       <c r="T18" t="n">
-        <v>22.75349612739414</v>
+        <v>26.97338096909656</v>
       </c>
       <c r="U18" t="n">
-        <v>14.23799703502247</v>
+        <v>19.97101446688463</v>
       </c>
       <c r="V18" t="n">
-        <v>32.31504446292721</v>
+        <v>40.54622230184604</v>
       </c>
       <c r="W18" t="n">
-        <v>16.22452271690253</v>
+        <v>29.98500414563756</v>
       </c>
       <c r="X18" t="n">
-        <v>29.70796745189809</v>
+        <v>17.65168146719518</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.75471404011001</v>
+        <v>8.679389462173921</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.62071683183778</v>
+        <v>24.42415735998328</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.88039488634684</v>
+        <v>15.49478837172616</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.862595178766142</v>
+        <v>6.164432647124929</v>
       </c>
       <c r="AC18" t="n">
-        <v>44.84730296992913</v>
+        <v>10.99953575133368</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.52056087708408</v>
+        <v>13.95758713082085</v>
       </c>
       <c r="AE18" t="n">
-        <v>13.52630296446304</v>
+        <v>29.95715416043873</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.86680022623233</v>
+        <v>24.1011933632385</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.296716224776556</v>
+        <v>15.6145922613245</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.105717570036227</v>
+        <v>12.96039396188253</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.62197511233235</v>
+        <v>14.19248790267983</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.23543255145336</v>
+        <v>8.020624747069771</v>
       </c>
       <c r="AK18" t="n">
-        <v>12.93720800801508</v>
+        <v>21.84229199683171</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.356093540158975</v>
+        <v>1.591106491929532</v>
       </c>
       <c r="AM18" t="n">
-        <v>6.445713919542955</v>
+        <v>4.119503085799384</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.175512875550969</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.347838590281308</v>
+        <v>6.424936203138943</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.353687344184204</v>
+        <v>0.7597339984829031</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.592860985887667</v>
+        <v>11.74695412693577</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>0.9953045191846108</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.549247934430356</v>
+        <v>3.497452746896847</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.478646393024944</v>
+        <v>3.767579528617663</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.377857248906738</v>
+        <v>3.933285760456526</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.347648187528194</v>
+        <v>2.796578985483393</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.5550093521602988</v>
+        <v>2.462372889388293</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.955952010297482</v>
+        <v>1.401767530059781</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>5.616447590309454</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.8665426969762</v>
+        <v>0.1623279317558228</v>
       </c>
       <c r="E19" t="n">
-        <v>3.44589206535081</v>
+        <v>21.0999901165639</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10.10525432342762</v>
       </c>
       <c r="H19" t="n">
-        <v>4.88947133895814</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>20.14683322268387</v>
+        <v>36.68927566878768</v>
       </c>
       <c r="J19" t="n">
-        <v>41.24888761066872</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>28.91629417196932</v>
+        <v>7.378694025315617</v>
       </c>
       <c r="L19" t="n">
-        <v>69.61317344402829</v>
+        <v>27.24565583264043</v>
       </c>
       <c r="M19" t="n">
-        <v>85.11043176648215</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>83.40715423357736</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>69.7641362983351</v>
+        <v>29.87539286854923</v>
       </c>
       <c r="P19" t="n">
-        <v>8.821800638342914</v>
+        <v>119.6116074236526</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.98476888456207</v>
+        <v>38.00607242135361</v>
       </c>
       <c r="R19" t="n">
-        <v>75.51403740149937</v>
+        <v>89.80337604049356</v>
       </c>
       <c r="S19" t="n">
-        <v>16.82053165591207</v>
+        <v>119.3865047015564</v>
       </c>
       <c r="T19" t="n">
-        <v>16.60720330145166</v>
+        <v>23.72434563706629</v>
       </c>
       <c r="U19" t="n">
-        <v>27.76509241713</v>
+        <v>17.03591443213926</v>
       </c>
       <c r="V19" t="n">
-        <v>26.62451033191226</v>
+        <v>7.507687709558211</v>
       </c>
       <c r="W19" t="n">
-        <v>126.4316397150475</v>
+        <v>29.99487704424239</v>
       </c>
       <c r="X19" t="n">
-        <v>34.8329718838029</v>
+        <v>22.79850291470725</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.63835390557027</v>
+        <v>55.4424927407442</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.940946792288868</v>
+        <v>11.71920724360414</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.89854186590683</v>
+        <v>18.57681042668073</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.862111065366908</v>
+        <v>37.76507942144425</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.414597486505059</v>
+        <v>8.154610218340869</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.92679936573208</v>
+        <v>6.763857680763432</v>
       </c>
       <c r="AE19" t="n">
-        <v>45.75251169469382</v>
+        <v>4.39569480057925</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>5.156536018879449</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.03411402314384</v>
+        <v>4.80225176538841</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.077326676550236</v>
+        <v>2.66088033110955</v>
       </c>
       <c r="AI19" t="n">
-        <v>36.77258383262536</v>
+        <v>8.07073199487674</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.30832592227406</v>
+        <v>11.84907496796408</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>7.58771038422837</v>
       </c>
       <c r="AL19" t="n">
-        <v>4.391729794895884</v>
+        <v>33.2653027789123</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.5111616980604108</v>
+        <v>16.61944218341358</v>
       </c>
       <c r="AN19" t="n">
-        <v>15.85402441722615</v>
+        <v>4.472144387875762</v>
       </c>
       <c r="AO19" t="n">
-        <v>18.07118370587515</v>
+        <v>7.951756051608886</v>
       </c>
       <c r="AP19" t="n">
-        <v>10.64940051080557</v>
+        <v>5.328289724551485</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.313446172677146</v>
+        <v>0.981333337068544</v>
       </c>
       <c r="AR19" t="n">
-        <v>13.52783403833325</v>
+        <v>3.946338450646438</v>
       </c>
       <c r="AS19" t="n">
-        <v>15.86041837405658</v>
+        <v>15.33493609576603</v>
       </c>
       <c r="AT19" t="n">
-        <v>17.79547470684522</v>
+        <v>11.75683737015118</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>6.065654887669337</v>
       </c>
       <c r="AV19" t="n">
-        <v>15.43441980352277</v>
+        <v>8.427691759604135</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>10.88312650307126</v>
       </c>
       <c r="AX19" t="n">
-        <v>23.97344767669282</v>
+        <v>27.66331330433857</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.44325732021222</v>
+        <v>79.39535800609423</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>17.78485261704778</v>
       </c>
       <c r="E20" t="n">
-        <v>25.66234856744938</v>
+        <v>285.0888847518957</v>
       </c>
       <c r="F20" t="n">
-        <v>6.982297543964279</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>53.82309824744006</v>
       </c>
       <c r="H20" t="n">
-        <v>14.00497162408112</v>
+        <v>56.60706198313173</v>
       </c>
       <c r="I20" t="n">
-        <v>67.14220065097638</v>
+        <v>97.95889324887814</v>
       </c>
       <c r="J20" t="n">
-        <v>53.05538539280798</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>295.9012917050775</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>140.9400063202795</v>
+        <v>55.97022062018636</v>
       </c>
       <c r="M20" t="n">
-        <v>100.5826559428743</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>60.06633942165033</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>123.1103024063695</v>
+        <v>69.0930290157919</v>
       </c>
       <c r="P20" t="n">
-        <v>88.09112494829986</v>
+        <v>102.1740976990177</v>
       </c>
       <c r="Q20" t="n">
-        <v>24.92840929082115</v>
+        <v>59.60719245211449</v>
       </c>
       <c r="R20" t="n">
-        <v>98.76660546616002</v>
+        <v>67.07451402644851</v>
       </c>
       <c r="S20" t="n">
-        <v>92.25854524793003</v>
+        <v>63.22326605128329</v>
       </c>
       <c r="T20" t="n">
-        <v>68.3009459502929</v>
+        <v>71.69190156874762</v>
       </c>
       <c r="U20" t="n">
-        <v>84.98209979941765</v>
+        <v>63.33416351287989</v>
       </c>
       <c r="V20" t="n">
-        <v>25.76529742619362</v>
+        <v>79.03091851333512</v>
       </c>
       <c r="W20" t="n">
-        <v>20.33134344838081</v>
+        <v>70.32973496067277</v>
       </c>
       <c r="X20" t="n">
-        <v>56.05069919205684</v>
+        <v>243.3954766595227</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.80303230428052</v>
+        <v>33.778295475142</v>
       </c>
       <c r="Z20" t="n">
-        <v>96.94060816163497</v>
+        <v>111.4863536060482</v>
       </c>
       <c r="AA20" t="n">
-        <v>94.50966303769428</v>
+        <v>46.60431656968218</v>
       </c>
       <c r="AB20" t="n">
-        <v>154.951820932545</v>
+        <v>153.7710104233445</v>
       </c>
       <c r="AC20" t="n">
-        <v>90.65187894896425</v>
+        <v>77.94166336302416</v>
       </c>
       <c r="AD20" t="n">
-        <v>141.7925300173523</v>
+        <v>122.0805428847947</v>
       </c>
       <c r="AE20" t="n">
-        <v>151.8346464558475</v>
+        <v>99.86313762240121</v>
       </c>
       <c r="AF20" t="n">
-        <v>102.2985624088836</v>
+        <v>111.1363786058128</v>
       </c>
       <c r="AG20" t="n">
-        <v>145.3470625511856</v>
+        <v>105.3146200289678</v>
       </c>
       <c r="AH20" t="n">
-        <v>54.30766765462863</v>
+        <v>111.441600374991</v>
       </c>
       <c r="AI20" t="n">
-        <v>45.37129214642061</v>
+        <v>72.04138377306208</v>
       </c>
       <c r="AJ20" t="n">
-        <v>139.2304840045235</v>
+        <v>90.44246520983577</v>
       </c>
       <c r="AK20" t="n">
-        <v>41.53921930600811</v>
+        <v>91.83886557631</v>
       </c>
       <c r="AL20" t="n">
-        <v>47.12606256356411</v>
+        <v>49.70167797299602</v>
       </c>
       <c r="AM20" t="n">
-        <v>39.00177432998375</v>
+        <v>27.79289270615987</v>
       </c>
       <c r="AN20" t="n">
-        <v>88.761520177276</v>
+        <v>75.7256080961743</v>
       </c>
       <c r="AO20" t="n">
-        <v>32.91901216282604</v>
+        <v>16.44351865169218</v>
       </c>
       <c r="AP20" t="n">
-        <v>19.06794211230598</v>
+        <v>25.91709568958185</v>
       </c>
       <c r="AQ20" t="n">
-        <v>17.45944581975353</v>
+        <v>17.70946094945992</v>
       </c>
       <c r="AR20" t="n">
-        <v>51.47970074767857</v>
+        <v>27.70571021542675</v>
       </c>
       <c r="AS20" t="n">
-        <v>43.05866626339085</v>
+        <v>19.16858879602964</v>
       </c>
       <c r="AT20" t="n">
-        <v>82.27255836358809</v>
+        <v>27.41902816290318</v>
       </c>
       <c r="AU20" t="n">
-        <v>43.13298136973347</v>
+        <v>22.51522482497656</v>
       </c>
       <c r="AV20" t="n">
-        <v>19.22485419170266</v>
+        <v>76.80124628600505</v>
       </c>
       <c r="AW20" t="n">
-        <v>28.82351229863865</v>
+        <v>28.99902876959152</v>
       </c>
       <c r="AX20" t="n">
-        <v>19.48281807340404</v>
+        <v>14.82877428922611</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.860941167037148</v>
+        <v>0.7788056384981171</v>
       </c>
       <c r="D21" t="n">
-        <v>2.512397291154437</v>
+        <v>3.317469894967266</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.2793478841892021</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.461169545438862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1852404183340735</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.103567852373989</v>
+        <v>4.766715147787951</v>
       </c>
       <c r="I21" t="n">
-        <v>7.969828131440564</v>
+        <v>5.043806267722795</v>
       </c>
       <c r="J21" t="n">
-        <v>3.704551936087991</v>
+        <v>1.396506425047858</v>
       </c>
       <c r="K21" t="n">
-        <v>1.173040042069715</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4.768245428868653</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.831914508793181</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4.588468628875066</v>
+        <v>3.331396148271699</v>
       </c>
       <c r="O21" t="n">
-        <v>1.788603168606024</v>
+        <v>5.395322803478201</v>
       </c>
       <c r="P21" t="n">
-        <v>5.952276100444495</v>
+        <v>6.292784312888289</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4134882241682922</v>
+        <v>4.410700229777142</v>
       </c>
       <c r="R21" t="n">
-        <v>5.105309408981251</v>
+        <v>5.075489218722018</v>
       </c>
       <c r="S21" t="n">
-        <v>3.228207220879241</v>
+        <v>2.727859053021147</v>
       </c>
       <c r="T21" t="n">
-        <v>6.312999837421799</v>
+        <v>6.098410492219535</v>
       </c>
       <c r="U21" t="n">
-        <v>4.279065685554617</v>
+        <v>4.127813312559903</v>
       </c>
       <c r="V21" t="n">
-        <v>3.071520536164252</v>
+        <v>4.350349376758997</v>
       </c>
       <c r="W21" t="n">
-        <v>4.485918562191703</v>
+        <v>5.698668182512454</v>
       </c>
       <c r="X21" t="n">
-        <v>3.857241733925404</v>
+        <v>7.607862915106292</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.910254893797607</v>
+        <v>6.22631205198284</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.063762521768518</v>
+        <v>4.459083687672909</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.186860002968314</v>
+        <v>4.587551939882525</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.784688982696881</v>
+        <v>8.704240104108834</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.339703175823317</v>
+        <v>2.981108988685137</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.423774878518065</v>
+        <v>7.601836248085919</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.689624179869925</v>
+        <v>3.098971301651642</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.488886046363982</v>
+        <v>4.408347258952873</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.267777464800729</v>
+        <v>6.153078522806955</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.143703834191739</v>
+        <v>6.172369924241395</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.999087656231957</v>
+        <v>2.755761089431505</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4.806791559490218</v>
+        <v>9.504105800992605</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.180614107979019</v>
+        <v>5.598959566301873</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.590646914440822</v>
+        <v>4.402924059322901</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.514911889318865</v>
+        <v>2.780195772358166</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.150284586924773</v>
+        <v>1.903776498110637</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.934384197534246</v>
+        <v>2.200597486932123</v>
       </c>
       <c r="AP21" t="n">
-        <v>4.017876462259414</v>
+        <v>3.722343670171803</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.899050866650135</v>
+        <v>4.741516138214608</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>3.834164995174163</v>
       </c>
       <c r="AS21" t="n">
-        <v>7.052075089916761</v>
+        <v>2.400792605423526</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.19283052410549</v>
+        <v>2.441938183293098</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.154941948100092</v>
+        <v>2.950708841672075</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.23573051328037</v>
+        <v>5.29548207615663</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.148707899036902</v>
+        <v>4.975337679228148</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.408926514261453</v>
+        <v>3.206792844924669</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17.65255172453438</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>42.56564565133561</v>
+        <v>25.32526186401658</v>
       </c>
       <c r="F22" t="n">
-        <v>36.0292355753278</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.07756377294123</v>
+        <v>54.21909381908596</v>
       </c>
       <c r="H22" t="n">
-        <v>39.25846160087506</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.848834965371172</v>
+        <v>8.422802204274575</v>
       </c>
       <c r="J22" t="n">
-        <v>16.84364166420658</v>
+        <v>19.10441893834458</v>
       </c>
       <c r="K22" t="n">
-        <v>83.17539157403655</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>51.70057086220071</v>
+        <v>137.248872106806</v>
       </c>
       <c r="M22" t="n">
-        <v>3.035862317713221</v>
+        <v>157.9482483841573</v>
       </c>
       <c r="N22" t="n">
-        <v>89.50730686673478</v>
+        <v>93.48886457840203</v>
       </c>
       <c r="O22" t="n">
-        <v>27.75230291713626</v>
+        <v>288.1773410357083</v>
       </c>
       <c r="P22" t="n">
-        <v>16.7033861301264</v>
+        <v>11.42657507916505</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.6223232763296</v>
+        <v>18.93532274772277</v>
       </c>
       <c r="R22" t="n">
-        <v>85.27147516414308</v>
+        <v>69.84829906843315</v>
       </c>
       <c r="S22" t="n">
-        <v>28.61675270187739</v>
+        <v>61.39357103794786</v>
       </c>
       <c r="T22" t="n">
-        <v>123.000038763031</v>
+        <v>20.08515639495565</v>
       </c>
       <c r="U22" t="n">
-        <v>46.42582496892685</v>
+        <v>9.985185509150607</v>
       </c>
       <c r="V22" t="n">
-        <v>335.5936555896246</v>
+        <v>68.23562255108604</v>
       </c>
       <c r="W22" t="n">
-        <v>33.81526825026313</v>
+        <v>53.35790806585324</v>
       </c>
       <c r="X22" t="n">
-        <v>77.58720889653104</v>
+        <v>54.98928320516387</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.18875184643377</v>
+        <v>184.0009626817468</v>
       </c>
       <c r="Z22" t="n">
-        <v>59.58992575963671</v>
+        <v>132.2867412268001</v>
       </c>
       <c r="AA22" t="n">
-        <v>98.52590490222227</v>
+        <v>31.78524283412199</v>
       </c>
       <c r="AB22" t="n">
-        <v>63.85187403632158</v>
+        <v>64.52525374841663</v>
       </c>
       <c r="AC22" t="n">
-        <v>34.53666297605787</v>
+        <v>77.6232428081529</v>
       </c>
       <c r="AD22" t="n">
-        <v>65.7969040293504</v>
+        <v>17.15864624481449</v>
       </c>
       <c r="AE22" t="n">
-        <v>77.9946913944826</v>
+        <v>53.29306680672458</v>
       </c>
       <c r="AF22" t="n">
-        <v>35.32299651240924</v>
+        <v>118.2759219264933</v>
       </c>
       <c r="AG22" t="n">
-        <v>34.89695930344443</v>
+        <v>27.50376129595736</v>
       </c>
       <c r="AH22" t="n">
-        <v>76.27783426024706</v>
+        <v>44.67759036712641</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.907066464821531</v>
+        <v>105.7336037596151</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12.45242896376709</v>
+        <v>101.5508973506404</v>
       </c>
       <c r="AK22" t="n">
-        <v>27.74194936194264</v>
+        <v>61.68674511334982</v>
       </c>
       <c r="AL22" t="n">
-        <v>23.96785067171621</v>
+        <v>136.2148743624666</v>
       </c>
       <c r="AM22" t="n">
-        <v>21.78745578817788</v>
+        <v>7.67564843391476</v>
       </c>
       <c r="AN22" t="n">
-        <v>25.95334989674196</v>
+        <v>26.59342385224885</v>
       </c>
       <c r="AO22" t="n">
-        <v>22.98736923381899</v>
+        <v>20.46046886694903</v>
       </c>
       <c r="AP22" t="n">
-        <v>37.38039131836113</v>
+        <v>5.012212047273544</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.303536569865683</v>
+        <v>14.31939670605113</v>
       </c>
       <c r="AR22" t="n">
-        <v>13.19111331552583</v>
+        <v>15.0577257531736</v>
       </c>
       <c r="AS22" t="n">
-        <v>8.684440799488684</v>
+        <v>82.73628266550642</v>
       </c>
       <c r="AT22" t="n">
-        <v>13.60148520704341</v>
+        <v>26.95673106390381</v>
       </c>
       <c r="AU22" t="n">
-        <v>13.42674948938297</v>
+        <v>7.713775440307308</v>
       </c>
       <c r="AV22" t="n">
-        <v>6.223451091470194</v>
+        <v>8.34348444882942</v>
       </c>
       <c r="AW22" t="n">
-        <v>12.70068461812459</v>
+        <v>18.53386673267069</v>
       </c>
       <c r="AX22" t="n">
-        <v>20.49704541486883</v>
+        <v>10.08459657862674</v>
       </c>
     </row>
     <row r="23">
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>25.50422168652438</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3897,136 +3897,136 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>35.44984873436794</v>
       </c>
       <c r="H23" t="n">
-        <v>27.46894735479877</v>
+        <v>11.58436684908059</v>
       </c>
       <c r="I23" t="n">
-        <v>117.2549757853625</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.3402964486191</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>28.15179515096728</v>
+        <v>19.77602273343855</v>
       </c>
       <c r="L23" t="n">
-        <v>45.28240645962398</v>
+        <v>85.58649710624661</v>
       </c>
       <c r="M23" t="n">
-        <v>46.02936587458373</v>
+        <v>24.02107541897177</v>
       </c>
       <c r="N23" t="n">
-        <v>90.36542900511765</v>
+        <v>33.16840267037522</v>
       </c>
       <c r="O23" t="n">
-        <v>69.83736308198728</v>
+        <v>45.65301688146236</v>
       </c>
       <c r="P23" t="n">
-        <v>96.49920238731903</v>
+        <v>134.7701125720557</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.01379076594255</v>
+        <v>72.51473283651914</v>
       </c>
       <c r="R23" t="n">
-        <v>93.42319820249935</v>
+        <v>7.82769204114981</v>
       </c>
       <c r="S23" t="n">
-        <v>18.97869099670707</v>
+        <v>35.51210912129179</v>
       </c>
       <c r="T23" t="n">
-        <v>171.7384010282896</v>
+        <v>32.54970889787324</v>
       </c>
       <c r="U23" t="n">
-        <v>60.73250270436509</v>
+        <v>40.77062383405694</v>
       </c>
       <c r="V23" t="n">
-        <v>51.60242427406945</v>
+        <v>95.94049990967942</v>
       </c>
       <c r="W23" t="n">
-        <v>43.56652936414093</v>
+        <v>24.56257591680561</v>
       </c>
       <c r="X23" t="n">
-        <v>136.1918106296482</v>
+        <v>57.04846193319206</v>
       </c>
       <c r="Y23" t="n">
-        <v>54.85200549469946</v>
+        <v>22.31376206959285</v>
       </c>
       <c r="Z23" t="n">
-        <v>57.44632423304348</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>50.30630771150254</v>
+        <v>22.53213139754083</v>
       </c>
       <c r="AB23" t="n">
-        <v>48.74586543390278</v>
+        <v>36.04637239677188</v>
       </c>
       <c r="AC23" t="n">
-        <v>64.74144411991006</v>
+        <v>53.51488807533326</v>
       </c>
       <c r="AD23" t="n">
-        <v>168.0388557367904</v>
+        <v>51.11545154267521</v>
       </c>
       <c r="AE23" t="n">
-        <v>35.22457295720086</v>
+        <v>31.50583257460951</v>
       </c>
       <c r="AF23" t="n">
-        <v>20.54257264135571</v>
+        <v>56.69894585913297</v>
       </c>
       <c r="AG23" t="n">
-        <v>8.419002756635289</v>
+        <v>8.319971953169048</v>
       </c>
       <c r="AH23" t="n">
-        <v>87.96499485488624</v>
+        <v>33.51556022155422</v>
       </c>
       <c r="AI23" t="n">
-        <v>113.2906162745243</v>
+        <v>40.69281250318748</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26.75193018618794</v>
+        <v>37.49099730947626</v>
       </c>
       <c r="AK23" t="n">
-        <v>46.90104688722302</v>
+        <v>27.86261273646861</v>
       </c>
       <c r="AL23" t="n">
-        <v>15.89036370786467</v>
+        <v>165.6454945557533</v>
       </c>
       <c r="AM23" t="n">
-        <v>19.15194988930708</v>
+        <v>4.245058040376914</v>
       </c>
       <c r="AN23" t="n">
-        <v>29.82636516592816</v>
+        <v>33.52919488149107</v>
       </c>
       <c r="AO23" t="n">
-        <v>37.44869689378216</v>
+        <v>18.93487310633123</v>
       </c>
       <c r="AP23" t="n">
-        <v>15.99905278624148</v>
+        <v>7.003671634597378</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21.01820205163001</v>
+        <v>35.33215388750463</v>
       </c>
       <c r="AR23" t="n">
-        <v>28.9247184522206</v>
+        <v>30.04872702658332</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.638772405629335</v>
+        <v>22.01969963182933</v>
       </c>
       <c r="AT23" t="n">
-        <v>22.15197204859916</v>
+        <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>19.98232553015192</v>
+        <v>3.705274527559491</v>
       </c>
       <c r="AV23" t="n">
-        <v>22.31252312235456</v>
+        <v>29.04777124089212</v>
       </c>
       <c r="AW23" t="n">
-        <v>23.15872421436419</v>
+        <v>9.779373989883654</v>
       </c>
       <c r="AX23" t="n">
-        <v>23.6386160873309</v>
+        <v>43.67621583332486</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>14.99403489512042</v>
+        <v>6.310467953909981</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>35.26149535821903</v>
       </c>
       <c r="E24" t="n">
-        <v>3.485796988069074</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3.657366076360754</v>
+        <v>11.39149467330011</v>
       </c>
       <c r="G24" t="n">
-        <v>7.956072084391811</v>
+        <v>73.00614535901205</v>
       </c>
       <c r="H24" t="n">
-        <v>11.3610187370539</v>
+        <v>7.869762384566592</v>
       </c>
       <c r="I24" t="n">
-        <v>11.51843375692612</v>
+        <v>19.60104515340314</v>
       </c>
       <c r="J24" t="n">
-        <v>37.77444409803482</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>7.912071382246086</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>3.277589659742004</v>
+        <v>0.7364440176935929</v>
       </c>
       <c r="M24" t="n">
-        <v>8.536393321411786</v>
+        <v>41.90819856754388</v>
       </c>
       <c r="N24" t="n">
-        <v>56.723686797766</v>
+        <v>119.6030536852085</v>
       </c>
       <c r="O24" t="n">
-        <v>14.48250331497236</v>
+        <v>29.9127570345421</v>
       </c>
       <c r="P24" t="n">
-        <v>17.69565493090721</v>
+        <v>26.96419990388429</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.60978258358139</v>
+        <v>17.03361570849206</v>
       </c>
       <c r="R24" t="n">
-        <v>31.19881941058691</v>
+        <v>10.57671145514865</v>
       </c>
       <c r="S24" t="n">
-        <v>15.65895682993271</v>
+        <v>24.00394193030084</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>6.302695367975739</v>
       </c>
       <c r="U24" t="n">
-        <v>12.29151060580252</v>
+        <v>36.68931843147952</v>
       </c>
       <c r="V24" t="n">
-        <v>16.7428523602421</v>
+        <v>24.9338832536518</v>
       </c>
       <c r="W24" t="n">
-        <v>39.87127742503171</v>
+        <v>18.8208374449796</v>
       </c>
       <c r="X24" t="n">
-        <v>10.19639975348956</v>
+        <v>6.587671351695629</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.69374724266786</v>
+        <v>17.38399524379685</v>
       </c>
       <c r="Z24" t="n">
-        <v>14.41306101613127</v>
+        <v>12.47562754110304</v>
       </c>
       <c r="AA24" t="n">
-        <v>11.16953783406456</v>
+        <v>3.959993331942854</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.863628653885712</v>
+        <v>5.283404459785075</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.58502595143</v>
+        <v>9.123729053464956</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.81998755898481</v>
+        <v>13.26645040257966</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.55176050424771</v>
+        <v>17.04561270673372</v>
       </c>
       <c r="AF24" t="n">
-        <v>6.190597246458346</v>
+        <v>49.14000398912978</v>
       </c>
       <c r="AG24" t="n">
-        <v>5.21989651170284</v>
+        <v>13.090674804023</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.732540711498583</v>
+        <v>5.232742024931842</v>
       </c>
       <c r="AI24" t="n">
-        <v>10.52067273755843</v>
+        <v>6.287950913426492</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5.336900601225454</v>
+        <v>4.238432671566332</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.723721923073874</v>
+        <v>10.1075801406851</v>
       </c>
       <c r="AL24" t="n">
-        <v>11.13842540540857</v>
+        <v>17.53841928924211</v>
       </c>
       <c r="AM24" t="n">
-        <v>4.539105394980658</v>
+        <v>5.058087696320303</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.403341989778141</v>
+        <v>4.081996695825248</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.798734160798933</v>
+        <v>9.794869647170701</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.194078217296667</v>
+        <v>3.588462596295429</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>1.644285067442224</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.546264357971593</v>
+        <v>4.048029887135641</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.677187859223328</v>
+        <v>2.273580497633237</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.02179011272248466</v>
+        <v>1.258542797748033</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.07834412956647</v>
+        <v>3.407190730091746</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.036082281303151</v>
+        <v>3.769262604666856</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>2.629621753415532</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.814279866609944</v>
+        <v>0.2878914876163379</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20.06356125155418</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.88277833251622</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8.963467104342042</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.09069390465699</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>9.246988849311835</v>
+        <v>20.95824553078421</v>
       </c>
       <c r="I25" t="n">
-        <v>53.12827118094494</v>
+        <v>29.02233573753804</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>53.0290711149502</v>
       </c>
       <c r="L25" t="n">
-        <v>4.025353385349036</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>72.71909754567372</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>16.61807993601256</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>77.97463010502766</v>
+        <v>12.10305775248952</v>
       </c>
       <c r="P25" t="n">
-        <v>5.324980854465287</v>
+        <v>22.67978415418744</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.6051912263154</v>
+        <v>23.09401958836142</v>
       </c>
       <c r="R25" t="n">
-        <v>33.53563435658369</v>
+        <v>17.4586331931516</v>
       </c>
       <c r="S25" t="n">
-        <v>8.795684479820091</v>
+        <v>20.18334139955945</v>
       </c>
       <c r="T25" t="n">
-        <v>35.98080870455229</v>
+        <v>7.725759711260724</v>
       </c>
       <c r="U25" t="n">
-        <v>47.4171800151996</v>
+        <v>123.7666849147119</v>
       </c>
       <c r="V25" t="n">
-        <v>45.45225716560054</v>
+        <v>37.31244258812393</v>
       </c>
       <c r="W25" t="n">
-        <v>75.43012308201693</v>
+        <v>103.1789381160596</v>
       </c>
       <c r="X25" t="n">
-        <v>128.8406895236391</v>
+        <v>24.08282730904894</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.06638010878113</v>
+        <v>14.85321066933842</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.02556893041928</v>
+        <v>42.95223027372171</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.5798447222281</v>
+        <v>21.62727617204174</v>
       </c>
       <c r="AB25" t="n">
-        <v>28.32530878237075</v>
+        <v>10.53158701720846</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.648822965074846</v>
+        <v>42.97446760648921</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.480805951904232</v>
+        <v>20.91448365213878</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.687667833181568</v>
+        <v>8.112799013004867</v>
       </c>
       <c r="AF25" t="n">
-        <v>24.38740506736642</v>
+        <v>7.804866549482973</v>
       </c>
       <c r="AG25" t="n">
-        <v>5.159141516553262</v>
+        <v>10.0958432561236</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>4.911725710435119</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.978798107333612</v>
+        <v>4.512288012098561</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.57912707424237</v>
+        <v>16.25589881688502</v>
       </c>
       <c r="AK25" t="n">
-        <v>21.74249682671966</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.879551118397899</v>
+        <v>8.060714520285673</v>
       </c>
       <c r="AM25" t="n">
-        <v>3.50662769202522</v>
+        <v>4.754430286394168</v>
       </c>
       <c r="AN25" t="n">
-        <v>26.32766985486928</v>
+        <v>5.155577496897763</v>
       </c>
       <c r="AO25" t="n">
-        <v>2.092637306689419</v>
+        <v>3.836023838293659</v>
       </c>
       <c r="AP25" t="n">
-        <v>11.09196271950354</v>
+        <v>8.725288478417161</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2.866415320680628</v>
+        <v>6.42156727757054</v>
       </c>
       <c r="AR25" t="n">
-        <v>22.92655810480127</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>15.22587554450543</v>
+        <v>2.904281425842517</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.440249242924847</v>
+        <v>0.4188848468012041</v>
       </c>
       <c r="AU25" t="n">
-        <v>15.52431523832337</v>
+        <v>14.43530562037167</v>
       </c>
       <c r="AV25" t="n">
-        <v>11.28394556840325</v>
+        <v>9.64068012920421</v>
       </c>
       <c r="AW25" t="n">
-        <v>11.59858666379242</v>
+        <v>14.08630078605993</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.95376419877402</v>
+        <v>9.133662120676114</v>
       </c>
     </row>
     <row r="26">
@@ -4344,145 +4344,145 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.74227167433938</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>27.40679592460776</v>
+        <v>45.37455494558787</v>
       </c>
       <c r="F26" t="n">
-        <v>26.85142962832094</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>11.69648298822609</v>
+        <v>82.87572173788259</v>
       </c>
       <c r="H26" t="n">
-        <v>42.34268986073684</v>
+        <v>25.84626765953703</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.304682244701212</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>90.73409718289996</v>
       </c>
       <c r="K26" t="n">
-        <v>95.91556984113262</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>35.45387326443293</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>30.76491840635089</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>114.0497431871736</v>
+        <v>12.27113143349644</v>
       </c>
       <c r="O26" t="n">
-        <v>158.1257294514465</v>
+        <v>84.54047761668713</v>
       </c>
       <c r="P26" t="n">
-        <v>79.89165672102939</v>
+        <v>112.307325219607</v>
       </c>
       <c r="Q26" t="n">
-        <v>31.931889960704</v>
+        <v>176.558992867103</v>
       </c>
       <c r="R26" t="n">
-        <v>107.9530965273051</v>
+        <v>18.70139430037477</v>
       </c>
       <c r="S26" t="n">
-        <v>242.0461181495924</v>
+        <v>15.64864024635048</v>
       </c>
       <c r="T26" t="n">
-        <v>66.69249751645552</v>
+        <v>62.66979369511949</v>
       </c>
       <c r="U26" t="n">
-        <v>43.36099454003259</v>
+        <v>61.13288690456196</v>
       </c>
       <c r="V26" t="n">
-        <v>52.16450167155773</v>
+        <v>70.09535907999185</v>
       </c>
       <c r="W26" t="n">
-        <v>51.30079409640813</v>
+        <v>19.55514314450281</v>
       </c>
       <c r="X26" t="n">
-        <v>117.5915449942852</v>
+        <v>45.97451939850444</v>
       </c>
       <c r="Y26" t="n">
-        <v>39.78186867397875</v>
+        <v>114.3215573319239</v>
       </c>
       <c r="Z26" t="n">
-        <v>122.1492596350775</v>
+        <v>71.16444975327282</v>
       </c>
       <c r="AA26" t="n">
-        <v>119.1122641028064</v>
+        <v>41.04073553299004</v>
       </c>
       <c r="AB26" t="n">
-        <v>76.25089631295289</v>
+        <v>178.3908931444133</v>
       </c>
       <c r="AC26" t="n">
-        <v>114.9309842287635</v>
+        <v>128.0253554546399</v>
       </c>
       <c r="AD26" t="n">
-        <v>159.6579388543546</v>
+        <v>63.77766108647442</v>
       </c>
       <c r="AE26" t="n">
-        <v>77.10870346444489</v>
+        <v>38.72540585128591</v>
       </c>
       <c r="AF26" t="n">
-        <v>58.40884368898131</v>
+        <v>158.9561155202358</v>
       </c>
       <c r="AG26" t="n">
-        <v>97.69063565582138</v>
+        <v>106.5309778559887</v>
       </c>
       <c r="AH26" t="n">
-        <v>150.3320730524344</v>
+        <v>50.57654990653473</v>
       </c>
       <c r="AI26" t="n">
-        <v>91.54731841676656</v>
+        <v>64.67085541720103</v>
       </c>
       <c r="AJ26" t="n">
-        <v>49.95574595335759</v>
+        <v>49.38193266324542</v>
       </c>
       <c r="AK26" t="n">
-        <v>52.33603817188182</v>
+        <v>49.54199222282304</v>
       </c>
       <c r="AL26" t="n">
-        <v>30.5421361456331</v>
+        <v>76.55947192934153</v>
       </c>
       <c r="AM26" t="n">
-        <v>59.29028542566883</v>
+        <v>17.97875369316042</v>
       </c>
       <c r="AN26" t="n">
-        <v>63.6684403610474</v>
+        <v>30.8343307518527</v>
       </c>
       <c r="AO26" t="n">
-        <v>21.43112684298133</v>
+        <v>19.23583188626128</v>
       </c>
       <c r="AP26" t="n">
-        <v>29.6581172847705</v>
+        <v>30.37257847833307</v>
       </c>
       <c r="AQ26" t="n">
-        <v>22.26555003026892</v>
+        <v>31.96020912331948</v>
       </c>
       <c r="AR26" t="n">
-        <v>34.35029525687703</v>
+        <v>26.15458537265132</v>
       </c>
       <c r="AS26" t="n">
-        <v>18.60250255224371</v>
+        <v>23.99192638552679</v>
       </c>
       <c r="AT26" t="n">
-        <v>22.34296901776638</v>
+        <v>31.01821796999263</v>
       </c>
       <c r="AU26" t="n">
-        <v>35.97668057770392</v>
+        <v>25.98189248697204</v>
       </c>
       <c r="AV26" t="n">
-        <v>23.85221206766016</v>
+        <v>28.74280592062696</v>
       </c>
       <c r="AW26" t="n">
-        <v>16.17372032235109</v>
+        <v>27.41117177897033</v>
       </c>
       <c r="AX26" t="n">
-        <v>27.35095395358204</v>
+        <v>22.14130769656985</v>
       </c>
     </row>
     <row r="27">
@@ -4499,142 +4499,142 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.089534392523777</v>
       </c>
       <c r="F27" t="n">
-        <v>2.745513774424222</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6378721776373011</v>
+        <v>4.336063768442318</v>
       </c>
       <c r="H27" t="n">
-        <v>1.752045860389649</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.855402568164504</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.125818722707806</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01423048375495073</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>4.239747510525992</v>
+        <v>4.682867598896236</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8664728862129216</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>4.450728164298396</v>
+        <v>2.242921571841523</v>
       </c>
       <c r="P27" t="n">
-        <v>2.966113519596163</v>
+        <v>5.470579358616143</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.951625998153395</v>
+        <v>1.367188593367566</v>
       </c>
       <c r="R27" t="n">
-        <v>8.498450641943441</v>
+        <v>1.496105779223353</v>
       </c>
       <c r="S27" t="n">
-        <v>2.079946770786489</v>
+        <v>2.324075271407001</v>
       </c>
       <c r="T27" t="n">
-        <v>1.459216087754878</v>
+        <v>1.835930849422061</v>
       </c>
       <c r="U27" t="n">
-        <v>7.41650548989826</v>
+        <v>3.492561234637702</v>
       </c>
       <c r="V27" t="n">
-        <v>5.022094670053697</v>
+        <v>3.640348732152232</v>
       </c>
       <c r="W27" t="n">
-        <v>2.524060302998326</v>
+        <v>4.859911656110674</v>
       </c>
       <c r="X27" t="n">
-        <v>5.630530162223132</v>
+        <v>1.995549619049738</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.37379306302258</v>
+        <v>6.075707586782749</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.778441202101196</v>
+        <v>6.004653104611744</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.444781455191418</v>
+        <v>5.434433243232927</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.857876644519146</v>
+        <v>7.485618411638549</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.003484837365971</v>
+        <v>4.930212136417939</v>
       </c>
       <c r="AD27" t="n">
-        <v>4.131635847028138</v>
+        <v>5.496833994600389</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.31173193228797</v>
+        <v>6.043705404240289</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.500238619032587</v>
+        <v>10.31952930295095</v>
       </c>
       <c r="AG27" t="n">
-        <v>3.46962093787533</v>
+        <v>6.739301483839722</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.896027255146597</v>
+        <v>3.299103356107953</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.803348863298045</v>
+        <v>3.436562654098112</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3.709498161001044</v>
+        <v>3.482077607193625</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.745760533453691</v>
+        <v>4.614553169829472</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.200938553789638</v>
+        <v>5.234166390925981</v>
       </c>
       <c r="AM27" t="n">
-        <v>5.326836624807086</v>
+        <v>4.042364480725767</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.907053986025621</v>
+        <v>1.217521873416125</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.266016758309915</v>
+        <v>2.822743165929825</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.4028043360323</v>
+        <v>4.833002981582133</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.920242991803175</v>
+        <v>1.959246469170784</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.884942567315118</v>
+        <v>3.866247184217588</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.362382246039805</v>
+        <v>1.757960287823912</v>
       </c>
       <c r="AT27" t="n">
-        <v>5.979842371006702</v>
+        <v>2.315624680114252</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.112696937647138</v>
+        <v>2.611997529997618</v>
       </c>
       <c r="AV27" t="n">
-        <v>4.506876757288064</v>
+        <v>3.246973959994468</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.4626003960367341</v>
+        <v>4.871945178892891</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.605958316816478</v>
+        <v>2.436050108899187</v>
       </c>
     </row>
     <row r="28">
@@ -4645,13 +4645,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>44.03816947890045</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>280.2655758662146</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4660,133 +4660,133 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.972186945441274</v>
+        <v>9.201646240761297</v>
       </c>
       <c r="I28" t="n">
-        <v>101.9119215786387</v>
+        <v>29.52978113533893</v>
       </c>
       <c r="J28" t="n">
-        <v>187.4213266165565</v>
+        <v>7.727881179461156</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5456983027206</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>35.71926755532848</v>
+        <v>160.5722389825585</v>
       </c>
       <c r="N28" t="n">
-        <v>43.88762033002898</v>
+        <v>106.9134870439245</v>
       </c>
       <c r="O28" t="n">
-        <v>48.75674034603639</v>
+        <v>28.53623553911115</v>
       </c>
       <c r="P28" t="n">
-        <v>45.98079795176846</v>
+        <v>57.87028213296254</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.06272978739274</v>
+        <v>83.26779822585291</v>
       </c>
       <c r="R28" t="n">
-        <v>54.81853476739155</v>
+        <v>74.75901785063003</v>
       </c>
       <c r="S28" t="n">
-        <v>75.27420469648558</v>
+        <v>50.86522676418894</v>
       </c>
       <c r="T28" t="n">
-        <v>40.49209434923917</v>
+        <v>52.68295104433617</v>
       </c>
       <c r="U28" t="n">
-        <v>87.69580264093587</v>
+        <v>80.20262932302342</v>
       </c>
       <c r="V28" t="n">
-        <v>24.58996972666647</v>
+        <v>70.36306493923161</v>
       </c>
       <c r="W28" t="n">
-        <v>52.2553145282931</v>
+        <v>48.47048157665327</v>
       </c>
       <c r="X28" t="n">
-        <v>41.92083773460665</v>
+        <v>40.43989708255614</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.6662277779863</v>
+        <v>148.8725084795063</v>
       </c>
       <c r="Z28" t="n">
-        <v>89.23182255508837</v>
+        <v>67.90248895637504</v>
       </c>
       <c r="AA28" t="n">
-        <v>38.16986266606397</v>
+        <v>25.97059547370815</v>
       </c>
       <c r="AB28" t="n">
-        <v>88.27831905015543</v>
+        <v>103.8047751885796</v>
       </c>
       <c r="AC28" t="n">
-        <v>35.48867520506874</v>
+        <v>59.97278798683031</v>
       </c>
       <c r="AD28" t="n">
-        <v>113.0031092181475</v>
+        <v>98.21048128035781</v>
       </c>
       <c r="AE28" t="n">
-        <v>76.94227911381331</v>
+        <v>52.81538683859041</v>
       </c>
       <c r="AF28" t="n">
-        <v>115.4464541599826</v>
+        <v>33.63274604376219</v>
       </c>
       <c r="AG28" t="n">
-        <v>70.52205233095931</v>
+        <v>63.32686952108254</v>
       </c>
       <c r="AH28" t="n">
-        <v>76.70182867510405</v>
+        <v>33.74231625219446</v>
       </c>
       <c r="AI28" t="n">
-        <v>75.87255508830349</v>
+        <v>87.770420905283</v>
       </c>
       <c r="AJ28" t="n">
-        <v>44.98961847007584</v>
+        <v>90.09772598989079</v>
       </c>
       <c r="AK28" t="n">
-        <v>14.17487487488341</v>
+        <v>37.30886598301232</v>
       </c>
       <c r="AL28" t="n">
-        <v>64.59240211597643</v>
+        <v>57.08067208541416</v>
       </c>
       <c r="AM28" t="n">
-        <v>21.87737873681273</v>
+        <v>11.32108912336086</v>
       </c>
       <c r="AN28" t="n">
-        <v>14.16364107039158</v>
+        <v>21.96018591024397</v>
       </c>
       <c r="AO28" t="n">
-        <v>10.72140610739731</v>
+        <v>11.72248923241041</v>
       </c>
       <c r="AP28" t="n">
-        <v>6.576655724147693</v>
+        <v>31.98294785941723</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13.42683001498308</v>
+        <v>16.65387209464872</v>
       </c>
       <c r="AR28" t="n">
-        <v>7.203394743597671</v>
+        <v>14.52651470054849</v>
       </c>
       <c r="AS28" t="n">
-        <v>13.22873072786177</v>
+        <v>10.9446706521472</v>
       </c>
       <c r="AT28" t="n">
-        <v>26.05842482653694</v>
+        <v>13.45929769789136</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.025072075004491</v>
+        <v>37.44749270465894</v>
       </c>
       <c r="AV28" t="n">
-        <v>21.76098148672301</v>
+        <v>10.81534102104113</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.871594557708402</v>
+        <v>10.99030417439986</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.523309853963985</v>
+        <v>8.694704176245882</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>4.457449940901967</v>
+        <v>51.44793195700636</v>
       </c>
       <c r="D29" t="n">
-        <v>16.20375196420604</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>20.51745718753559</v>
+        <v>18.56935630720675</v>
       </c>
       <c r="F29" t="n">
-        <v>44.75696498903911</v>
+        <v>73.34021431485289</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>28.80751224461373</v>
       </c>
       <c r="H29" t="n">
-        <v>15.75519731101821</v>
+        <v>382.1460416099781</v>
       </c>
       <c r="I29" t="n">
-        <v>73.24231020262533</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10.56716501293742</v>
+        <v>28.0812506906181</v>
       </c>
       <c r="K29" t="n">
-        <v>175.5734075993242</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>163.1820256173943</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>303.3034820758717</v>
+        <v>29.23723516663048</v>
       </c>
       <c r="N29" t="n">
-        <v>111.8752596135253</v>
+        <v>6.106350203283414</v>
       </c>
       <c r="O29" t="n">
-        <v>49.18067301523131</v>
+        <v>93.92648181166147</v>
       </c>
       <c r="P29" t="n">
-        <v>48.41226950065663</v>
+        <v>28.08075248761816</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.29931427428184</v>
+        <v>80.53360741769532</v>
       </c>
       <c r="R29" t="n">
-        <v>16.45673041949988</v>
+        <v>77.94489465759476</v>
       </c>
       <c r="S29" t="n">
-        <v>27.41670140913335</v>
+        <v>93.47203579422239</v>
       </c>
       <c r="T29" t="n">
-        <v>47.04325685673749</v>
+        <v>85.26223278312514</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>191.431871029846</v>
       </c>
       <c r="V29" t="n">
-        <v>44.56649684438395</v>
+        <v>45.38280216568952</v>
       </c>
       <c r="W29" t="n">
-        <v>74.96485571586788</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>25.31884100235439</v>
+        <v>109.3519470247028</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.99971297742429</v>
+        <v>54.62604603381628</v>
       </c>
       <c r="Z29" t="n">
-        <v>47.05597676385815</v>
+        <v>15.55078615820596</v>
       </c>
       <c r="AA29" t="n">
-        <v>26.37183605004683</v>
+        <v>12.34598975541956</v>
       </c>
       <c r="AB29" t="n">
-        <v>49.19056247822184</v>
+        <v>30.1224212735276</v>
       </c>
       <c r="AC29" t="n">
-        <v>47.9402303112111</v>
+        <v>45.07492027878939</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.36054757170831</v>
+        <v>10.69107570367449</v>
       </c>
       <c r="AE29" t="n">
-        <v>55.49117531990274</v>
+        <v>37.14148896299136</v>
       </c>
       <c r="AF29" t="n">
-        <v>27.5171761627885</v>
+        <v>21.20462262609307</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>23.43495145594339</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.29637779008176</v>
+        <v>36.53642262172189</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.76153432297348</v>
+        <v>52.05749460134543</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25.38043741952453</v>
+        <v>37.75695336375522</v>
       </c>
       <c r="AK29" t="n">
-        <v>28.99234854247695</v>
+        <v>18.28399670551796</v>
       </c>
       <c r="AL29" t="n">
-        <v>15.04433460282976</v>
+        <v>34.37077236946511</v>
       </c>
       <c r="AM29" t="n">
-        <v>24.90508727465453</v>
+        <v>18.72541047044035</v>
       </c>
       <c r="AN29" t="n">
-        <v>25.42307231091403</v>
+        <v>25.94872117923599</v>
       </c>
       <c r="AO29" t="n">
-        <v>18.09942162727531</v>
+        <v>23.85587564776601</v>
       </c>
       <c r="AP29" t="n">
-        <v>11.4975672500781</v>
+        <v>6.065461302839923</v>
       </c>
       <c r="AQ29" t="n">
-        <v>27.51574258470453</v>
+        <v>19.77714133925927</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.685644639127904</v>
+        <v>2.582935361916507</v>
       </c>
       <c r="AS29" t="n">
-        <v>36.82163080609748</v>
+        <v>25.13490577942226</v>
       </c>
       <c r="AT29" t="n">
-        <v>8.198930061198341</v>
+        <v>3.129378761602484</v>
       </c>
       <c r="AU29" t="n">
-        <v>3.871558135078406</v>
+        <v>21.9152645764877</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>46.35093174984384</v>
       </c>
       <c r="AW29" t="n">
-        <v>26.91475360987551</v>
+        <v>5.852441670685015</v>
       </c>
       <c r="AX29" t="n">
-        <v>21.39957592021389</v>
+        <v>21.92656798793611</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>3.317126612833186</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>24.20713936176109</v>
       </c>
       <c r="E30" t="n">
-        <v>3.090671137889525</v>
+        <v>0.6443522986652228</v>
       </c>
       <c r="F30" t="n">
-        <v>12.14990162675451</v>
+        <v>7.731163619544941</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5.286950204904058</v>
       </c>
       <c r="H30" t="n">
-        <v>7.151638006517929</v>
+        <v>19.73762724231763</v>
       </c>
       <c r="I30" t="n">
-        <v>25.72814251490314</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.052900991917863</v>
+        <v>18.35622007261564</v>
       </c>
       <c r="K30" t="n">
-        <v>33.88827408905284</v>
+        <v>31.26620225567309</v>
       </c>
       <c r="L30" t="n">
-        <v>66.8069908436068</v>
+        <v>11.64778207657618</v>
       </c>
       <c r="M30" t="n">
-        <v>19.26696131764254</v>
+        <v>64.69861417075222</v>
       </c>
       <c r="N30" t="n">
-        <v>67.35036697122793</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>38.26216087496216</v>
+        <v>68.47031766453539</v>
       </c>
       <c r="P30" t="n">
-        <v>13.0586352369812</v>
+        <v>13.6730964667632</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.48881710318894</v>
+        <v>42.05484317337004</v>
       </c>
       <c r="R30" t="n">
-        <v>5.437948169950827</v>
+        <v>30.01022185962349</v>
       </c>
       <c r="S30" t="n">
-        <v>8.003572624670944</v>
+        <v>10.41972223998259</v>
       </c>
       <c r="T30" t="n">
-        <v>16.87574520757213</v>
+        <v>51.97586694410722</v>
       </c>
       <c r="U30" t="n">
-        <v>18.14054131500154</v>
+        <v>0.5461279613979748</v>
       </c>
       <c r="V30" t="n">
-        <v>20.22643972537617</v>
+        <v>22.18507527666972</v>
       </c>
       <c r="W30" t="n">
-        <v>10.02459497493155</v>
+        <v>60.40602833743904</v>
       </c>
       <c r="X30" t="n">
-        <v>32.04993832861149</v>
+        <v>25.89952945196285</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.516059247107805</v>
+        <v>25.21308884128179</v>
       </c>
       <c r="Z30" t="n">
-        <v>34.03490942161272</v>
+        <v>16.45190522414579</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.604551555531872</v>
+        <v>14.22735546379024</v>
       </c>
       <c r="AB30" t="n">
-        <v>22.19100626427802</v>
+        <v>5.985519351255219</v>
       </c>
       <c r="AC30" t="n">
-        <v>13.96747684906143</v>
+        <v>20.77258176382198</v>
       </c>
       <c r="AD30" t="n">
-        <v>17.29157579536129</v>
+        <v>14.83637846984795</v>
       </c>
       <c r="AE30" t="n">
-        <v>5.940756911470308</v>
+        <v>5.335023879075875</v>
       </c>
       <c r="AF30" t="n">
-        <v>24.6486654506193</v>
+        <v>13.3922722619142</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.22226568185606</v>
+        <v>15.4772075987893</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.71935365446195</v>
+        <v>13.85828017830313</v>
       </c>
       <c r="AI30" t="n">
-        <v>7.020789399149561</v>
+        <v>22.92811205103105</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20.81409762836619</v>
+        <v>4.983622575065072</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.039902013959232</v>
+        <v>4.153538203641934</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.602901062045298</v>
+        <v>21.258732892057</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.823443375831018</v>
+        <v>2.448802431680319</v>
       </c>
       <c r="AN30" t="n">
-        <v>11.9906093068573</v>
+        <v>23.00946999450115</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.088451824499566</v>
+        <v>3.795952669063967</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.454293137600242</v>
+        <v>2.897037411145023</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.490561775359442</v>
+        <v>2.549592068490194</v>
       </c>
       <c r="AR30" t="n">
-        <v>12.53462814346048</v>
+        <v>4.349256745086771</v>
       </c>
       <c r="AS30" t="n">
-        <v>5.658431649432974</v>
+        <v>4.514069850609554</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.135543575586437</v>
+        <v>4.577011916197315</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.974740077030155</v>
+        <v>0.6649582054237572</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.302758626480983</v>
+        <v>8.528165993556723</v>
       </c>
       <c r="AW30" t="n">
-        <v>2.001004602285399</v>
+        <v>0.9830051009023179</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.4328961810000499</v>
+        <v>3.131017199747045</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3331747992238769</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22.04436847215702</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>27.66211453652786</v>
+        <v>15.59965550903875</v>
       </c>
       <c r="G31" t="n">
-        <v>43.10039454102977</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>30.82873421119676</v>
       </c>
       <c r="I31" t="n">
-        <v>6.247037241597761</v>
+        <v>6.877761291381561</v>
       </c>
       <c r="J31" t="n">
-        <v>21.44894500931694</v>
+        <v>23.08424646904537</v>
       </c>
       <c r="K31" t="n">
-        <v>30.6660635767808</v>
+        <v>29.04404486276402</v>
       </c>
       <c r="L31" t="n">
-        <v>42.94722767382487</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>88.01849964568277</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.37470009250958</v>
+        <v>15.55708198374399</v>
       </c>
       <c r="O31" t="n">
-        <v>17.69877871417216</v>
+        <v>19.79706025697017</v>
       </c>
       <c r="P31" t="n">
-        <v>46.74023322650493</v>
+        <v>118.7921264062899</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1546114883416</v>
+        <v>37.34371088247231</v>
       </c>
       <c r="R31" t="n">
-        <v>69.25505563118354</v>
+        <v>74.92853280619862</v>
       </c>
       <c r="S31" t="n">
-        <v>10.98894955847965</v>
+        <v>30.80924068118543</v>
       </c>
       <c r="T31" t="n">
-        <v>8.482943879545587</v>
+        <v>39.57942477244298</v>
       </c>
       <c r="U31" t="n">
-        <v>104.4929238163839</v>
+        <v>33.66274484199372</v>
       </c>
       <c r="V31" t="n">
-        <v>27.82502689711749</v>
+        <v>9.667513831649787</v>
       </c>
       <c r="W31" t="n">
-        <v>74.94156502710503</v>
+        <v>105.4359524808013</v>
       </c>
       <c r="X31" t="n">
-        <v>20.07323217179498</v>
+        <v>44.9907367660339</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.85112183031879</v>
+        <v>14.73584836930505</v>
       </c>
       <c r="Z31" t="n">
-        <v>71.67368823501852</v>
+        <v>81.42379079795997</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>2.930714106833066</v>
       </c>
       <c r="AB31" t="n">
-        <v>4.457556933747096</v>
+        <v>7.280415887946247</v>
       </c>
       <c r="AC31" t="n">
-        <v>14.50822564525395</v>
+        <v>0.463058957031445</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.248427495477836</v>
+        <v>7.119729787938995</v>
       </c>
       <c r="AE31" t="n">
-        <v>2.945187025456434</v>
+        <v>3.458318883598731</v>
       </c>
       <c r="AF31" t="n">
-        <v>56.56119674225826</v>
+        <v>14.52417768569027</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.52948349226437</v>
+        <v>2.143948649375405</v>
       </c>
       <c r="AH31" t="n">
-        <v>4.891148722741431</v>
+        <v>4.761688758665342</v>
       </c>
       <c r="AI31" t="n">
-        <v>15.56165777077328</v>
+        <v>5.712685769107767</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.524344270962087</v>
+        <v>15.53851829800142</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.74029211744211</v>
+        <v>9.317475685053889</v>
       </c>
       <c r="AL31" t="n">
-        <v>21.7175236685463</v>
+        <v>9.167801169569902</v>
       </c>
       <c r="AM31" t="n">
-        <v>5.472363692229526</v>
+        <v>4.177695956741086</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.420584495873488</v>
+        <v>0.9059943204005321</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.263739761723462</v>
+        <v>21.84610201541583</v>
       </c>
       <c r="AP31" t="n">
-        <v>11.62609258786569</v>
+        <v>3.299241164527106</v>
       </c>
       <c r="AQ31" t="n">
-        <v>9.067199981740774</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.536028913832203</v>
+        <v>10.26915106317407</v>
       </c>
       <c r="AS31" t="n">
-        <v>21.9023385663188</v>
+        <v>10.41265604417243</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.4903067733087347</v>
+        <v>5.581221229800582</v>
       </c>
       <c r="AU31" t="n">
-        <v>26.57807875525541</v>
+        <v>2.767380120953398</v>
       </c>
       <c r="AV31" t="n">
-        <v>6.261643461960906</v>
+        <v>13.14076707505034</v>
       </c>
       <c r="AW31" t="n">
-        <v>14.8935492823919</v>
+        <v>2.417162155713438</v>
       </c>
       <c r="AX31" t="n">
-        <v>3.977401896742694</v>
+        <v>7.212278637521107</v>
       </c>
     </row>
   </sheetData>
